--- a/summary_constrained_experiments.xlsx
+++ b/summary_constrained_experiments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9F434B-A8A2-4674-A60F-6BAAA7BD93A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741D946-40CB-4FE8-BADB-88CAD71E31ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="35">
   <si>
     <t>IPOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,18 @@
     <t>model group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shared VC repeats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPOG-MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -269,11 +281,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,9 +317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,151 +600,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2556B679-56CE-4FF9-AB4C-6DD39E912146}">
-  <dimension ref="B1:AL53"/>
+  <dimension ref="B1:BA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="24" max="24" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="20" t="s">
+    <row r="1" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="20" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="18"/>
     </row>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18" t="s">
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="18"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
+    <row r="3" spans="2:53" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
+      <c r="I3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>3</v>
@@ -720,17 +785,17 @@
       <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
+      <c r="O3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>3</v>
@@ -738,17 +803,17 @@
       <c r="Q3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>4</v>
+      <c r="U3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>3</v>
@@ -756,17 +821,17 @@
       <c r="W3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>4</v>
+      <c r="AA3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>3</v>
@@ -774,25 +839,70 @@
       <c r="AC3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AJ3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -804,93 +914,138 @@
       <c r="E4">
         <v>28</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="G4" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="J4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="L4">
+      <c r="O4" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="P4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>22</v>
       </c>
-      <c r="N4">
+      <c r="R4" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="S4">
         <v>2.7E-2</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>22</v>
       </c>
-      <c r="P4">
+      <c r="U4" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="V4">
         <v>2.3E-2</v>
-      </c>
-      <c r="Q4">
-        <v>29</v>
-      </c>
-      <c r="R4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S4">
-        <v>22</v>
-      </c>
-      <c r="T4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U4" s="1">
-        <v>22</v>
-      </c>
-      <c r="V4">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W4">
         <v>29</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z4">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="AB4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AC4" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="AE4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AF4">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="AH4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI4" s="1">
         <v>23</v>
       </c>
-      <c r="Z4">
+      <c r="AJ4" s="24">
+        <v>2</v>
+      </c>
+      <c r="AK4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AL4" s="1">
         <v>23</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AM4" s="25">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AO4" s="1">
         <v>30</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AP4" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="AQ4" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AR4" s="1">
         <v>23</v>
       </c>
-      <c r="AF4">
+      <c r="AS4" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AU4" s="1">
         <v>23</v>
       </c>
+      <c r="AV4" s="25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
+    <row r="5" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
       <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
@@ -900,94 +1055,139 @@
       <c r="E5">
         <v>29</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
         <v>3.1E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>29</v>
       </c>
-      <c r="J5">
+      <c r="L5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>31</v>
       </c>
-      <c r="L5">
+      <c r="O5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>31</v>
       </c>
-      <c r="N5">
+      <c r="R5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>31</v>
       </c>
-      <c r="P5">
+      <c r="U5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>30</v>
       </c>
-      <c r="R5">
+      <c r="X5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5">
         <v>3.9E-2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="Z5" s="1">
         <v>30</v>
       </c>
-      <c r="T5">
+      <c r="AA5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="AC5" s="1">
         <v>30</v>
       </c>
-      <c r="V5" s="1">
+      <c r="AD5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AF5" s="1">
         <v>33</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AG5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AI5" s="1">
         <v>33</v>
       </c>
-      <c r="Z5">
+      <c r="AJ5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AL5" s="1">
         <v>33</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AM5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC5" s="1">
-        <v>34</v>
-      </c>
-      <c r="AD5" s="1">
+      <c r="AO5" s="1">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ5" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AE5" s="1">
-        <v>34</v>
-      </c>
-      <c r="AF5">
+      <c r="AR5" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5">
         <v>3.1E-2</v>
       </c>
-      <c r="AG5" s="1">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="1"/>
+      <c r="AU5" s="1">
+        <v>34</v>
+      </c>
+      <c r="AV5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
+    <row r="6" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
@@ -997,94 +1197,139 @@
       <c r="E6">
         <v>29</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
         <v>2.7E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>29</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>31</v>
       </c>
-      <c r="N6" s="1">
+      <c r="R6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>31</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>30</v>
       </c>
-      <c r="R6" s="1">
+      <c r="X6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="Z6" s="1">
         <v>30</v>
       </c>
-      <c r="T6" s="1">
+      <c r="AA6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="AC6" s="1">
         <v>30</v>
       </c>
-      <c r="V6" s="1">
+      <c r="AD6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="AF6" s="1">
         <v>33</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AG6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AI6" s="1">
         <v>33</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AJ6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AL6" s="1">
         <v>33</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AM6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN6" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AC6" s="1">
-        <v>34</v>
-      </c>
-      <c r="AD6" s="1">
+      <c r="AO6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE6" s="1">
-        <v>34</v>
-      </c>
-      <c r="AF6" s="1">
+      <c r="AR6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AG6" s="1">
-        <v>34</v>
-      </c>
-      <c r="AI6" s="1"/>
+      <c r="AU6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AV6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
+    <row r="7" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
       <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
@@ -1094,94 +1339,139 @@
       <c r="E7" s="3">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>29</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>29</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>31</v>
       </c>
-      <c r="L7" s="3">
+      <c r="O7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="Q7" s="3">
         <v>31</v>
       </c>
-      <c r="N7" s="3">
+      <c r="R7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>31</v>
       </c>
-      <c r="P7" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>30</v>
-      </c>
-      <c r="R7" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="S7" s="3">
-        <v>30</v>
-      </c>
-      <c r="T7" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="U7" s="3">
-        <v>30</v>
+      <c r="U7" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="V7" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="3">
+        <v>30</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AF7" s="2">
         <v>33</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AG7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AI7" s="2">
         <v>33</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AJ7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AL7" s="2">
         <v>33</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AM7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AC7" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD7" s="2">
+      <c r="AO7" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AE7" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF7" s="3">
+      <c r="AR7" s="2">
+        <v>34</v>
+      </c>
+      <c r="AS7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AG7" s="2">
-        <v>34</v>
-      </c>
-      <c r="AI7" s="1"/>
+      <c r="AU7" s="2">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
+    <row r="8" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1191,94 +1481,139 @@
       <c r="E8" s="3">
         <v>29</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>29</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>31</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>31</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>31</v>
       </c>
-      <c r="P8" s="3">
+      <c r="U8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="W8" s="3">
         <v>30</v>
       </c>
-      <c r="R8" s="3">
+      <c r="X8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S8" s="3">
+      <c r="Z8" s="3">
         <v>30</v>
       </c>
-      <c r="T8" s="3">
+      <c r="AA8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U8" s="3">
+      <c r="AC8" s="3">
         <v>30</v>
       </c>
-      <c r="V8" s="3">
+      <c r="AD8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AF8" s="2">
         <v>33</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AG8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AI8" s="2">
         <v>33</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AJ8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK8" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AL8" s="2">
         <v>33</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AM8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN8" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AC8" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD8" s="2">
+      <c r="AO8" s="2">
+        <v>34</v>
+      </c>
+      <c r="AP8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="AE8" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF8" s="3">
+      <c r="AR8" s="2">
+        <v>34</v>
+      </c>
+      <c r="AS8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="AG8" s="2">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="1"/>
+      <c r="AU8" s="2">
+        <v>34</v>
+      </c>
+      <c r="AV8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1290,94 +1625,139 @@
       <c r="E9" s="3">
         <v>182</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="22">
+        <v>7.1851851851851798</v>
+      </c>
+      <c r="G9" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>107</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="24">
+        <v>4.4074074074074003</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>87</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="23">
+        <v>3.6666666666666599</v>
+      </c>
+      <c r="M9" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>191</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="24">
+        <v>7.55555555555555</v>
+      </c>
+      <c r="P9" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="Q9" s="2">
         <v>106</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="24">
+        <v>4.4074074074074003</v>
+      </c>
+      <c r="S9" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="T9" s="2">
         <v>84</v>
       </c>
-      <c r="P9" s="2">
+      <c r="U9" s="23">
+        <v>3.5925925925925899</v>
+      </c>
+      <c r="V9" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="W9" s="2">
         <v>192</v>
       </c>
-      <c r="R9" s="2">
+      <c r="X9" s="23">
+        <v>7.55555555555555</v>
+      </c>
+      <c r="Y9" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="S9" s="2">
+      <c r="Z9" s="2">
         <v>106</v>
       </c>
-      <c r="T9" s="2">
+      <c r="AA9" s="23">
+        <v>4.3703703703703702</v>
+      </c>
+      <c r="AB9" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="U9" s="2">
+      <c r="AC9" s="2">
         <v>84</v>
       </c>
-      <c r="V9" s="2">
+      <c r="AD9" s="23">
+        <v>3.55555555555555</v>
+      </c>
+      <c r="AE9" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AF9" s="2">
         <v>188</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AG9" s="24">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="AH9" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AI9" s="2">
         <v>107</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AJ9" s="24">
+        <v>4.4074074074074003</v>
+      </c>
+      <c r="AK9" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AL9" s="2">
         <v>85</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AM9" s="23">
+        <v>3.5925925925925899</v>
+      </c>
+      <c r="AN9" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AO9" s="2">
         <v>190</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AP9" s="23">
+        <v>7.5185185185185102</v>
+      </c>
+      <c r="AQ9" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AR9" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AS9" s="23">
+        <v>4.4074074074074003</v>
+      </c>
+      <c r="AT9" s="2">
         <v>0.151</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AU9" s="2">
         <v>84</v>
       </c>
-      <c r="AJ9" s="2"/>
+      <c r="AV9" s="23">
+        <v>3.5925925925925899</v>
+      </c>
+      <c r="AY9" s="2"/>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
+    <row r="10" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1387,94 +1767,139 @@
       <c r="E10" s="3">
         <v>182</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="22">
+        <v>6.9411764705882302</v>
+      </c>
+      <c r="G10" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="24">
+        <v>6.9411764705882302</v>
+      </c>
+      <c r="J10" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>182</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="22">
+        <v>6.9411764705882302</v>
+      </c>
+      <c r="M10" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>191</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="24">
+        <v>7.5294117647058796</v>
+      </c>
+      <c r="P10" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="Q10" s="2">
         <v>191</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="24">
+        <v>7.5294117647058796</v>
+      </c>
+      <c r="S10" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="T10" s="2">
         <v>191</v>
       </c>
-      <c r="P10" s="2">
+      <c r="U10" s="23">
+        <v>7.5294117647058796</v>
+      </c>
+      <c r="V10" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="W10" s="2">
         <v>192</v>
       </c>
-      <c r="R10" s="2">
+      <c r="X10" s="23">
+        <v>7.5882352941176396</v>
+      </c>
+      <c r="Y10" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="Z10" s="2">
         <v>192</v>
       </c>
-      <c r="T10" s="2">
+      <c r="AA10" s="23">
+        <v>7.5882352941176396</v>
+      </c>
+      <c r="AB10" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="U10" s="2">
+      <c r="AC10" s="2">
         <v>192</v>
       </c>
-      <c r="V10" s="2">
+      <c r="AD10" s="23">
+        <v>7.5882352941176396</v>
+      </c>
+      <c r="AE10" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AF10" s="2">
         <v>188</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AG10" s="24">
+        <v>7.2941176470588198</v>
+      </c>
+      <c r="AH10" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AI10" s="2">
         <v>188</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AJ10" s="24">
+        <v>7.2941176470588198</v>
+      </c>
+      <c r="AK10" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AL10" s="2">
         <v>188</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AM10" s="23">
+        <v>7.2941176470588198</v>
+      </c>
+      <c r="AN10" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AO10" s="2">
         <v>190</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AP10" s="23">
+        <v>7.4705882352941098</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AR10" s="2">
         <v>190</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AS10" s="23">
+        <v>7.4705882352941098</v>
+      </c>
+      <c r="AT10" s="2">
         <v>0.06</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AU10" s="2">
         <v>190</v>
       </c>
-      <c r="AI10" s="1"/>
+      <c r="AV10" s="23">
+        <v>7.4705882352941098</v>
+      </c>
+      <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
+    <row r="11" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1484,94 +1909,139 @@
       <c r="E11" s="3">
         <v>182</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>182</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>182</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>191</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="Q11" s="2">
         <v>191</v>
       </c>
-      <c r="N11" s="3">
+      <c r="R11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="O11" s="2">
+      <c r="T11" s="2">
         <v>191</v>
       </c>
-      <c r="P11" s="2">
+      <c r="U11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="W11" s="2">
         <v>192</v>
       </c>
-      <c r="R11" s="2">
+      <c r="X11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="S11" s="2">
+      <c r="Z11" s="2">
         <v>192</v>
       </c>
-      <c r="T11" s="2">
+      <c r="AA11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="U11" s="2">
+      <c r="AC11" s="2">
         <v>192</v>
       </c>
-      <c r="V11" s="2">
+      <c r="AD11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AF11" s="2">
         <v>188</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AG11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH11" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AI11" s="2">
         <v>188</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AJ11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AL11" s="2">
         <v>188</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AM11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN11" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AO11" s="2">
         <v>190</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AP11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AR11" s="2">
         <v>190</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AS11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT11" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AU11" s="2">
         <v>190</v>
       </c>
-      <c r="AI11" s="1"/>
+      <c r="AV11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
+    <row r="12" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
       <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1581,94 +2051,139 @@
       <c r="E12" s="3">
         <v>182</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>182</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>182</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>191</v>
       </c>
-      <c r="L12" s="2">
+      <c r="O12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="Q12" s="2">
         <v>191</v>
       </c>
-      <c r="N12" s="3">
+      <c r="R12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="T12" s="2">
         <v>191</v>
       </c>
-      <c r="P12" s="2">
+      <c r="U12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="W12" s="2">
         <v>192</v>
       </c>
-      <c r="R12" s="2">
+      <c r="X12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="S12" s="2">
+      <c r="Z12" s="2">
         <v>192</v>
       </c>
-      <c r="T12" s="2">
+      <c r="AA12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="U12" s="2">
+      <c r="AC12" s="2">
         <v>192</v>
       </c>
-      <c r="V12" s="2">
+      <c r="AD12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AF12" s="2">
         <v>188</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AG12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AI12" s="2">
         <v>188</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AJ12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AL12" s="2">
         <v>188</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AM12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN12" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AO12" s="2">
         <v>190</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AP12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AR12" s="2">
         <v>190</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AS12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT12" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AU12" s="2">
         <v>190</v>
       </c>
-      <c r="AI12" s="1"/>
+      <c r="AV12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+    <row r="13" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
       <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1678,94 +2193,139 @@
       <c r="E13" s="3">
         <v>182</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>182</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>182</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N13" s="2">
         <v>191</v>
       </c>
-      <c r="L13" s="3">
+      <c r="O13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
         <v>191</v>
       </c>
-      <c r="N13" s="3">
+      <c r="R13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O13" s="2">
+      <c r="T13" s="2">
         <v>191</v>
       </c>
-      <c r="P13" s="2">
+      <c r="U13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="W13" s="2">
         <v>192</v>
       </c>
-      <c r="R13" s="2">
+      <c r="X13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S13" s="2">
+      <c r="Z13" s="2">
         <v>192</v>
       </c>
-      <c r="T13" s="2">
+      <c r="AA13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="U13" s="2">
+      <c r="AC13" s="2">
         <v>192</v>
       </c>
-      <c r="V13" s="2">
+      <c r="AD13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE13" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AF13" s="2">
         <v>188</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AG13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH13" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AI13" s="2">
         <v>188</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AJ13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK13" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AL13" s="2">
         <v>188</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AM13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN13" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AO13" s="2">
         <v>190</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AP13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ13" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AR13" s="2">
         <v>190</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AS13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT13" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AU13" s="2">
         <v>190</v>
       </c>
-      <c r="AI13" s="1"/>
+      <c r="AV13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1777,93 +2337,138 @@
       <c r="E14" s="3">
         <v>177</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="22">
+        <v>3.8792270531400899</v>
+      </c>
+      <c r="G14" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="24">
+        <v>2.6956521739130399</v>
+      </c>
+      <c r="J14" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>83</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="23">
+        <v>2.5362318840579698</v>
+      </c>
+      <c r="M14" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N14" s="2">
         <v>173</v>
       </c>
-      <c r="L14" s="2">
+      <c r="O14" s="24">
+        <v>3.86893203883495</v>
+      </c>
+      <c r="P14" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="Q14" s="2">
         <v>87</v>
       </c>
-      <c r="N14" s="3">
+      <c r="R14" s="24">
+        <v>2.66990291262135</v>
+      </c>
+      <c r="S14" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>80</v>
       </c>
-      <c r="P14" s="3">
+      <c r="U14" s="22">
+        <v>2.4902912621359201</v>
+      </c>
+      <c r="V14" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="W14" s="3">
         <v>180</v>
       </c>
-      <c r="R14" s="3">
+      <c r="X14" s="22">
+        <v>3.9130434782608599</v>
+      </c>
+      <c r="Y14" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="S14" s="3">
+      <c r="Z14" s="3">
         <v>94</v>
       </c>
-      <c r="T14" s="3">
+      <c r="AA14" s="22">
+        <v>2.7439613526570001</v>
+      </c>
+      <c r="AB14" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U14" s="2">
+      <c r="AC14" s="2">
         <v>84</v>
       </c>
-      <c r="V14" s="3">
+      <c r="AD14" s="23">
+        <v>2.52657004830917</v>
+      </c>
+      <c r="AE14" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="W14" s="3">
+      <c r="AF14" s="3">
         <v>172</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AG14" s="24">
+        <v>3.8260869565217299</v>
+      </c>
+      <c r="AH14" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AI14" s="3">
         <v>89</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AJ14" s="24">
+        <v>2.6666666666666599</v>
+      </c>
+      <c r="AK14" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AL14" s="2">
         <v>80</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AM14" s="23">
+        <v>2.4734299516908198</v>
+      </c>
+      <c r="AN14" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AO14" s="3">
         <v>178</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AP14" s="22">
+        <v>3.88405797101449</v>
+      </c>
+      <c r="AQ14" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AR14" s="3">
         <v>90</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AS14" s="22">
+        <v>2.6859903381642498</v>
+      </c>
+      <c r="AT14" s="3">
         <v>0.126</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AU14" s="2">
         <v>82</v>
       </c>
+      <c r="AV14" s="23">
+        <v>2.5024154589371901</v>
+      </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+    <row r="15" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
       <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1873,93 +2478,138 @@
       <c r="E15" s="3">
         <v>366</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="22">
+        <v>2.6333333333333302</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.126</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>216</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="24">
+        <v>2.0804597701149401</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>201</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="23">
+        <v>2.01609195402298</v>
+      </c>
+      <c r="M15" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>361</v>
       </c>
-      <c r="L15" s="2">
+      <c r="O15" s="24">
+        <v>2.6632064590542099</v>
+      </c>
+      <c r="P15" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="Q15" s="2">
         <v>213</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="24">
+        <v>2.1003460207612399</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="O15" s="2">
+      <c r="T15" s="2">
         <v>197</v>
       </c>
-      <c r="P15" s="2">
+      <c r="U15" s="23">
+        <v>2.02652825836216</v>
+      </c>
+      <c r="V15" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="W15" s="2">
         <v>370</v>
       </c>
-      <c r="R15" s="2">
+      <c r="X15" s="23">
+        <v>2.6712643678160899</v>
+      </c>
+      <c r="Y15" s="2">
         <v>0.121</v>
       </c>
-      <c r="S15" s="2">
+      <c r="Z15" s="2">
         <v>220</v>
       </c>
-      <c r="T15" s="2">
+      <c r="AA15" s="23">
+        <v>2.1091954022988499</v>
+      </c>
+      <c r="AB15" s="2">
         <v>0.24099999999999999</v>
       </c>
-      <c r="U15" s="2">
+      <c r="AC15" s="2">
         <v>204</v>
       </c>
-      <c r="V15" s="2">
+      <c r="AD15" s="23">
+        <v>2.0379310344827499</v>
+      </c>
+      <c r="AE15" s="2">
         <v>0.219</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AF15" s="2">
         <v>359</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AG15" s="24">
+        <v>2.60229885057471</v>
+      </c>
+      <c r="AH15" s="2">
         <v>0.27300000000000002</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AI15" s="2">
         <v>216</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AJ15" s="24">
+        <v>2.0965517241379299</v>
+      </c>
+      <c r="AK15" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AL15" s="2">
         <v>193</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AM15" s="23">
+        <v>1.9942528735632099</v>
+      </c>
+      <c r="AN15" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AO15" s="2">
         <v>362</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AP15" s="23">
+        <v>2.6597701149425199</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>0.108</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AR15" s="2">
         <v>217</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AS15" s="23">
+        <v>2.10229885057471</v>
+      </c>
+      <c r="AT15" s="3">
         <v>0.111</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AU15" s="2">
         <v>201</v>
       </c>
+      <c r="AV15" s="23">
+        <v>2.02758620689655</v>
+      </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
+    <row r="16" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1969,93 +2619,138 @@
       <c r="E16" s="2">
         <v>701</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="23">
+        <v>1.9907284768211899</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>443</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="24">
+        <v>1.7072847682119201</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.26700000000000002</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>455</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="23">
+        <v>1.70066225165562</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.14299999999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N16" s="2">
         <v>727</v>
       </c>
-      <c r="L16" s="2">
+      <c r="O16" s="24">
+        <v>2.0340406719717001</v>
+      </c>
+      <c r="P16" s="2">
         <v>0.307</v>
       </c>
-      <c r="M16" s="2">
+      <c r="Q16" s="2">
         <v>451</v>
       </c>
-      <c r="N16" s="3">
+      <c r="R16" s="24">
+        <v>1.7422634836427899</v>
+      </c>
+      <c r="S16" s="3">
         <v>0.40200000000000002</v>
       </c>
-      <c r="O16" s="2">
+      <c r="T16" s="2">
         <v>451</v>
       </c>
-      <c r="P16" s="2">
+      <c r="U16" s="23">
+        <v>1.73342175066313</v>
+      </c>
+      <c r="V16" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="W16" s="2">
         <v>729</v>
       </c>
-      <c r="R16" s="2">
+      <c r="X16" s="23">
+        <v>2.0317880794701901</v>
+      </c>
+      <c r="Y16" s="2">
         <v>0.27</v>
       </c>
-      <c r="S16" s="2">
+      <c r="Z16" s="2">
         <v>457</v>
       </c>
-      <c r="T16" s="2">
+      <c r="AA16" s="23">
+        <v>1.74216335540838</v>
+      </c>
+      <c r="AB16" s="2">
         <v>0.24299999999999999</v>
       </c>
-      <c r="U16" s="2">
+      <c r="AC16" s="2">
         <v>461</v>
       </c>
-      <c r="V16" s="3">
+      <c r="AD16" s="23">
+        <v>1.7350993377483399</v>
+      </c>
+      <c r="AE16" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="W16" s="3">
+      <c r="AF16" s="3">
         <v>733</v>
       </c>
-      <c r="X16" s="2">
+      <c r="AG16" s="24">
+        <v>1.95143487858719</v>
+      </c>
+      <c r="AH16" s="2">
         <v>0.29099999999999998</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AI16" s="2">
         <v>468</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AJ16" s="24">
+        <v>1.7249448123620299</v>
+      </c>
+      <c r="AK16" s="2">
         <v>0.40100000000000002</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AL16" s="2">
         <v>437</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AM16" s="23">
+        <v>1.67726269315673</v>
+      </c>
+      <c r="AN16" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AO16" s="2">
         <v>728</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AP16" s="23">
+        <v>2.02825607064017</v>
+      </c>
+      <c r="AQ16" s="2">
         <v>0.318</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AR16" s="2">
         <v>452</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AS16" s="23">
+        <v>1.73686534216335</v>
+      </c>
+      <c r="AT16" s="2">
         <v>0.40899999999999997</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AU16" s="2">
         <v>452</v>
       </c>
+      <c r="AV16" s="23">
+        <v>1.7280353200883001</v>
+      </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
       <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
@@ -2065,93 +2760,138 @@
       <c r="E17" s="2">
         <v>1277</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="23">
+        <v>1.5888228941684599</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.65900000000000003</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>845</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="24">
+        <v>1.47219222462203</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>845</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="23">
+        <v>1.47219222462203</v>
+      </c>
+      <c r="M17" s="2">
         <v>0.24399999999999999</v>
       </c>
-      <c r="K17" s="2">
+      <c r="N17" s="2">
         <v>1303</v>
       </c>
-      <c r="L17" s="2">
+      <c r="O17" s="24">
+        <v>1.63029975695382</v>
+      </c>
+      <c r="P17" s="2">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M17" s="2">
+      <c r="Q17" s="2">
         <v>871</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="24">
+        <v>1.5136375911423099</v>
+      </c>
+      <c r="S17" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="O17" s="2">
+      <c r="T17" s="2">
         <v>871</v>
       </c>
-      <c r="P17" s="2">
+      <c r="U17" s="23">
+        <v>1.5136375911423099</v>
+      </c>
+      <c r="V17" s="2">
         <v>0.246</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="W17" s="2">
         <v>1305</v>
       </c>
-      <c r="R17" s="3">
+      <c r="X17" s="23">
+        <v>1.6255399568034501</v>
+      </c>
+      <c r="Y17" s="3">
         <v>0.496</v>
       </c>
-      <c r="S17" s="3">
+      <c r="Z17" s="3">
         <v>873</v>
       </c>
-      <c r="T17" s="3">
+      <c r="AA17" s="22">
+        <v>1.50890928725701</v>
+      </c>
+      <c r="AB17" s="3">
         <v>0.69499999999999995</v>
       </c>
-      <c r="U17" s="2">
+      <c r="AC17" s="2">
         <v>873</v>
       </c>
-      <c r="V17" s="3">
+      <c r="AD17" s="23">
+        <v>1.50890928725701</v>
+      </c>
+      <c r="AE17" s="3">
         <v>0.376</v>
       </c>
-      <c r="W17" s="3">
+      <c r="AF17" s="3">
         <v>1208</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AG17" s="24">
+        <v>1.5194384449244001</v>
+      </c>
+      <c r="AH17" s="3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AI17" s="3">
         <v>865</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AJ17" s="24">
+        <v>1.42683585313174</v>
+      </c>
+      <c r="AK17" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AL17" s="3">
         <v>892</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AM17" s="22">
+        <v>1.4341252699784</v>
+      </c>
+      <c r="AN17" s="3">
         <v>0.182</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AO17" s="3">
         <v>1304</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AP17" s="22">
+        <v>1.62688984881209</v>
+      </c>
+      <c r="AQ17" s="3">
         <v>0.42299999999999999</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AR17" s="3">
         <v>872</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AS17" s="22">
+        <v>1.5102591792656499</v>
+      </c>
+      <c r="AT17" s="3">
         <v>0.67100000000000004</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AU17" s="2">
         <v>872</v>
       </c>
+      <c r="AV17" s="23">
+        <v>1.5102591792656499</v>
+      </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B18" s="27"/>
       <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
@@ -2161,93 +2901,138 @@
       <c r="E18" s="3">
         <v>1277</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="22">
+        <v>1.31876889255289</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.64600000000000002</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1277</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="24">
+        <v>1.31876889255289</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1277</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="22">
+        <v>1.31876889255289</v>
+      </c>
+      <c r="M18" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1303</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="24">
+        <v>1.3495465787304199</v>
+      </c>
+      <c r="P18" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="M18" s="2">
+      <c r="Q18" s="2">
         <v>1303</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="24">
+        <v>1.3495465787304199</v>
+      </c>
+      <c r="S18" s="3">
         <v>0.374</v>
       </c>
-      <c r="O18" s="2">
+      <c r="T18" s="2">
         <v>1303</v>
       </c>
-      <c r="P18" s="2">
+      <c r="U18" s="23">
+        <v>1.3495465787304199</v>
+      </c>
+      <c r="V18" s="2">
         <v>0.17100000000000001</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="W18" s="2">
         <v>1305</v>
       </c>
-      <c r="R18" s="3">
+      <c r="X18" s="23">
+        <v>1.3451497664193399</v>
+      </c>
+      <c r="Y18" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="S18" s="3">
+      <c r="Z18" s="3">
         <v>1305</v>
       </c>
-      <c r="T18" s="3">
+      <c r="AA18" s="22">
+        <v>1.3451497664193399</v>
+      </c>
+      <c r="AB18" s="3">
         <v>0.35299999999999998</v>
       </c>
-      <c r="U18" s="2">
+      <c r="AC18" s="2">
         <v>1305</v>
       </c>
-      <c r="V18" s="3">
+      <c r="AD18" s="23">
+        <v>1.3451497664193399</v>
+      </c>
+      <c r="AE18" s="3">
         <v>0.253</v>
       </c>
-      <c r="W18" s="3">
+      <c r="AF18" s="3">
         <v>1208</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AG18" s="24">
+        <v>1.2077493816982601</v>
+      </c>
+      <c r="AH18" s="3">
         <v>0.41599999999999998</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AI18" s="3">
         <v>1208</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AJ18" s="24">
+        <v>1.2077493816982601</v>
+      </c>
+      <c r="AK18" s="3">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AL18" s="3">
         <v>1208</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AM18" s="22">
+        <v>1.2077493816982601</v>
+      </c>
+      <c r="AN18" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AO18" s="3">
         <v>1304</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AP18" s="22">
+        <v>1.34844737565265</v>
+      </c>
+      <c r="AQ18" s="3">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AR18" s="3">
         <v>1304</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AS18" s="22">
+        <v>1.34844737565265</v>
+      </c>
+      <c r="AT18" s="3">
         <v>0.36699999999999999</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AU18" s="2">
         <v>1304</v>
       </c>
+      <c r="AV18" s="23">
+        <v>1.34844737565265</v>
+      </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2259,94 +3044,139 @@
       <c r="E19" s="3">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="22">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="G19" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>50</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="24">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="J19" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>50</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="22">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="M19" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>54</v>
       </c>
-      <c r="L19" s="2">
+      <c r="O19" s="24">
+        <v>3.7692307692307598</v>
+      </c>
+      <c r="P19" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="Q19" s="2">
         <v>54</v>
       </c>
-      <c r="N19" s="2">
+      <c r="R19" s="24">
+        <v>3.7692307692307598</v>
+      </c>
+      <c r="S19" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="O19" s="2">
+      <c r="T19" s="2">
         <v>54</v>
       </c>
-      <c r="P19" s="2">
+      <c r="U19" s="23">
+        <v>3.7692307692307598</v>
+      </c>
+      <c r="V19" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="W19" s="2">
         <v>48</v>
       </c>
-      <c r="R19" s="2">
+      <c r="X19" s="23">
+        <v>3.07692307692307</v>
+      </c>
+      <c r="Y19" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="S19" s="2">
+      <c r="Z19" s="2">
         <v>48</v>
       </c>
-      <c r="T19" s="2">
+      <c r="AA19" s="23">
+        <v>3.07692307692307</v>
+      </c>
+      <c r="AB19" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="U19" s="2">
+      <c r="AC19" s="2">
         <v>48</v>
       </c>
-      <c r="V19" s="2">
+      <c r="AD19" s="23">
+        <v>3.07692307692307</v>
+      </c>
+      <c r="AE19" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AF19" s="2">
         <v>50</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AG19" s="24">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="AH19" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AI19" s="2">
         <v>50</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AJ19" s="24">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="AK19" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AL19" s="2">
         <v>50</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AM19" s="23">
+        <v>3.3076923076922999</v>
+      </c>
+      <c r="AN19" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AO19" s="2">
         <v>53</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AP19" s="23">
+        <v>3.5384615384615299</v>
+      </c>
+      <c r="AQ19" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AR19" s="2">
         <v>53</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AS19" s="23">
+        <v>3.5384615384615299</v>
+      </c>
+      <c r="AT19" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AU19" s="2">
         <v>53</v>
       </c>
-      <c r="AI19" s="2"/>
+      <c r="AV19" s="23">
+        <v>3.5384615384615299</v>
+      </c>
+      <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
       <c r="C20" s="11" t="s">
         <v>7</v>
       </c>
@@ -2356,94 +3186,139 @@
       <c r="E20" s="3">
         <v>50</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.03</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J20" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>50</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>54</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O20" s="24">
+        <v>2.6</v>
+      </c>
+      <c r="P20" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="Q20" s="2">
         <v>54</v>
       </c>
-      <c r="N20" s="2">
+      <c r="R20" s="24">
+        <v>2.6</v>
+      </c>
+      <c r="S20" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="T20" s="2">
         <v>54</v>
       </c>
-      <c r="P20" s="2">
+      <c r="U20" s="23">
+        <v>2.6</v>
+      </c>
+      <c r="V20" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="W20" s="2">
         <v>48</v>
       </c>
-      <c r="R20" s="2">
+      <c r="X20" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S20" s="2">
+      <c r="Z20" s="2">
         <v>48</v>
       </c>
-      <c r="T20" s="2">
+      <c r="AA20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="AC20" s="2">
         <v>48</v>
       </c>
-      <c r="V20" s="2">
+      <c r="AD20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="W20" s="2">
+      <c r="AF20" s="2">
         <v>50</v>
       </c>
-      <c r="X20" s="2">
+      <c r="AG20" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH20" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AI20" s="2">
         <v>50</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AJ20" s="24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK20" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AL20" s="2">
         <v>50</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AM20" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN20" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AO20" s="2">
         <v>53</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AP20" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ20" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AR20" s="2">
         <v>53</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AS20" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT20" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AU20" s="2">
         <v>53</v>
       </c>
-      <c r="AI20" s="2"/>
+      <c r="AV20" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
       <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
@@ -2453,94 +3328,139 @@
       <c r="E21" s="3">
         <v>50</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>50</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
         <v>54</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="Q21" s="2">
         <v>54</v>
       </c>
-      <c r="N21" s="2">
+      <c r="R21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="T21" s="2">
         <v>54</v>
       </c>
-      <c r="P21" s="2">
+      <c r="U21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="W21" s="2">
         <v>48</v>
       </c>
-      <c r="R21" s="2">
+      <c r="X21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="S21" s="2">
+      <c r="Z21" s="2">
         <v>48</v>
       </c>
-      <c r="T21" s="2">
+      <c r="AA21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="U21" s="2">
+      <c r="AC21" s="2">
         <v>48</v>
       </c>
-      <c r="V21" s="2">
+      <c r="AD21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="W21" s="2">
+      <c r="AF21" s="2">
         <v>50</v>
       </c>
-      <c r="X21" s="2">
+      <c r="AG21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH21" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AI21" s="2">
         <v>50</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AJ21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK21" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AL21" s="2">
         <v>50</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AM21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN21" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AO21" s="2">
         <v>53</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AP21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ21" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AR21" s="2">
         <v>53</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AS21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT21" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AU21" s="2">
         <v>53</v>
       </c>
-      <c r="AI21" s="2"/>
+      <c r="AV21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
+    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
       <c r="C22" s="11" t="s">
         <v>9</v>
       </c>
@@ -2550,94 +3470,139 @@
       <c r="E22" s="3">
         <v>50</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>50</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="N22" s="2">
         <v>54</v>
       </c>
-      <c r="L22" s="2">
+      <c r="O22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="Q22" s="2">
         <v>54</v>
       </c>
-      <c r="N22" s="2">
+      <c r="R22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="O22" s="2">
+      <c r="T22" s="2">
         <v>54</v>
       </c>
-      <c r="P22" s="2">
+      <c r="U22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="W22" s="2">
         <v>48</v>
       </c>
-      <c r="R22" s="2">
+      <c r="X22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y22" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="S22" s="2">
+      <c r="Z22" s="2">
         <v>48</v>
       </c>
-      <c r="T22" s="2">
+      <c r="AA22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="U22" s="2">
+      <c r="AC22" s="2">
         <v>48</v>
       </c>
-      <c r="V22" s="2">
+      <c r="AD22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE22" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="W22" s="2">
+      <c r="AF22" s="2">
         <v>50</v>
       </c>
-      <c r="X22" s="2">
+      <c r="AG22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH22" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AI22" s="2">
         <v>50</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AJ22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK22" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AL22" s="2">
         <v>50</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AM22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN22" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AO22" s="2">
         <v>53</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AP22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ22" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AR22" s="2">
         <v>53</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AS22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT22" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AU22" s="2">
         <v>53</v>
       </c>
-      <c r="AI22" s="2"/>
+      <c r="AV22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B23" s="27"/>
       <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
@@ -2647,94 +3612,139 @@
       <c r="E23" s="3">
         <v>50</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>50</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>50</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>54</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="Q23" s="2">
         <v>54</v>
       </c>
-      <c r="N23" s="2">
+      <c r="R23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="O23" s="2">
+      <c r="T23" s="2">
         <v>54</v>
       </c>
-      <c r="P23" s="2">
+      <c r="U23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="W23" s="2">
         <v>48</v>
       </c>
-      <c r="R23" s="2">
+      <c r="X23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S23" s="2">
+      <c r="Z23" s="2">
         <v>48</v>
       </c>
-      <c r="T23" s="2">
+      <c r="AA23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="U23" s="2">
+      <c r="AC23" s="2">
         <v>48</v>
       </c>
-      <c r="V23" s="2">
+      <c r="AD23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE23" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="W23" s="2">
+      <c r="AF23" s="2">
         <v>50</v>
       </c>
-      <c r="X23" s="2">
+      <c r="AG23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH23" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AI23" s="2">
         <v>50</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AJ23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK23" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AL23" s="2">
         <v>50</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AM23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN23" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AO23" s="2">
         <v>53</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AP23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ23" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AR23" s="2">
         <v>53</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AS23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT23" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AU23" s="2">
         <v>53</v>
       </c>
-      <c r="AI23" s="2"/>
+      <c r="AV23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B24" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2746,94 +3756,139 @@
       <c r="E24" s="3">
         <v>53</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="2">
         <v>0.02</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="J24" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>53</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="M24" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>52</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="P24" s="3">
         <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="M24" s="3">
-        <v>52</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>52</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q24" s="3">
         <v>52</v>
       </c>
-      <c r="R24" s="3">
-        <v>1.2999999999999999E-2</v>
+      <c r="R24" s="24">
+        <v>1.2</v>
       </c>
       <c r="S24" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T24" s="3">
         <v>52</v>
       </c>
-      <c r="T24" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="U24" s="3">
-        <v>52</v>
+      <c r="U24" s="22">
+        <v>1.2</v>
       </c>
       <c r="V24" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="W24" s="3">
-        <v>51</v>
-      </c>
-      <c r="X24" s="3">
+        <v>52</v>
+      </c>
+      <c r="X24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Y24" s="3">
-        <v>51</v>
-      </c>
       <c r="Z24" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>1.2</v>
       </c>
       <c r="AB24" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AC24" s="3">
         <v>52</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG24" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="AH24" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AI24" s="3">
+        <v>51</v>
+      </c>
+      <c r="AJ24" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>51</v>
+      </c>
+      <c r="AM24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AO24" s="3">
         <v>52</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AP24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>52</v>
+      </c>
+      <c r="AS24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AT24" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AU24" s="3">
         <v>52</v>
       </c>
-      <c r="AI24" s="2"/>
+      <c r="AV24" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
       <c r="C25" s="11" t="s">
         <v>7</v>
       </c>
@@ -2843,94 +3898,139 @@
       <c r="E25" s="3">
         <v>53</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>53</v>
       </c>
-      <c r="H25" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>53</v>
+      <c r="I25" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="J25" s="3">
         <v>3.1E-2</v>
       </c>
       <c r="K25" s="3">
+        <v>53</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N25" s="3">
         <v>52</v>
       </c>
-      <c r="L25" s="3">
+      <c r="O25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="3">
         <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="M25" s="3">
-        <v>52</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="O25" s="3">
-        <v>52</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q25" s="3">
         <v>52</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T25" s="3">
+        <v>52</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W25" s="3">
+        <v>52</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y25" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="S25" s="3">
+      <c r="Z25" s="3">
         <v>52</v>
       </c>
-      <c r="T25" s="3">
+      <c r="AA25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" s="3">
         <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="U25" s="3">
-        <v>52</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="W25" s="3">
-        <v>51</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>51</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>51</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC25" s="3">
         <v>52</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>51</v>
+      </c>
+      <c r="AJ25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>51</v>
+      </c>
+      <c r="AM25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ25" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AR25" s="3">
         <v>52</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AS25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT25" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AU25" s="3">
         <v>52</v>
       </c>
-      <c r="AI25" s="2"/>
+      <c r="AV25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
       <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
@@ -2940,94 +4040,139 @@
       <c r="E26" s="3">
         <v>53</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>53</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>52</v>
       </c>
-      <c r="L26" s="2">
+      <c r="O26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="2">
         <v>3.9E-2</v>
-      </c>
-      <c r="M26" s="3">
-        <v>52</v>
-      </c>
-      <c r="N26" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>52</v>
-      </c>
-      <c r="P26" s="2">
-        <v>3.1E-2</v>
       </c>
       <c r="Q26" s="3">
         <v>52</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="T26" s="3">
+        <v>52</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W26" s="3">
+        <v>52</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y26" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S26" s="3">
+      <c r="Z26" s="3">
         <v>52</v>
       </c>
-      <c r="T26" s="2">
+      <c r="AA26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="2">
         <v>3.1E-2</v>
-      </c>
-      <c r="U26" s="3">
-        <v>52</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="W26" s="3">
-        <v>51</v>
-      </c>
-      <c r="X26" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>51</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>51</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>2.7E-2</v>
       </c>
       <c r="AC26" s="3">
         <v>52</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>51</v>
+      </c>
+      <c r="AJ26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>51</v>
+      </c>
+      <c r="AM26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AR26" s="3">
         <v>52</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AS26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT26" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AU26" s="3">
         <v>52</v>
       </c>
-      <c r="AI26" s="2"/>
+      <c r="AV26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
       <c r="C27" s="11" t="s">
         <v>9</v>
       </c>
@@ -3037,94 +4182,139 @@
       <c r="E27" s="3">
         <v>53</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>53</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>52</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="3">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M27" s="3">
-        <v>52</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="O27" s="3">
-        <v>52</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3.1E-2</v>
       </c>
       <c r="Q27" s="3">
         <v>52</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T27" s="3">
+        <v>52</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W27" s="3">
+        <v>52</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="S27" s="3">
+      <c r="Z27" s="3">
         <v>52</v>
       </c>
-      <c r="T27" s="3">
+      <c r="AA27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="3">
         <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U27" s="3">
-        <v>52</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W27" s="3">
-        <v>51</v>
-      </c>
-      <c r="X27" s="3">
-        <v>2.7E-2</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>51</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>51</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AC27" s="3">
         <v>52</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>51</v>
+      </c>
+      <c r="AJ27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>51</v>
+      </c>
+      <c r="AM27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ27" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AR27" s="3">
         <v>52</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AS27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT27" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AU27" s="3">
         <v>52</v>
       </c>
-      <c r="AI27" s="2"/>
+      <c r="AV27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
       <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
@@ -3134,71 +4324,71 @@
       <c r="E28" s="3">
         <v>53</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>53</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>53</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="N28" s="3">
         <v>52</v>
       </c>
-      <c r="L28" s="3">
+      <c r="O28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="3">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M28" s="3">
-        <v>52</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="O28" s="3">
-        <v>52</v>
-      </c>
-      <c r="P28" s="3">
-        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q28" s="3">
         <v>52</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T28" s="3">
+        <v>52</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W28" s="3">
+        <v>52</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="S28" s="3">
+      <c r="Z28" s="3">
         <v>52</v>
       </c>
-      <c r="T28" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="U28" s="3">
-        <v>52</v>
-      </c>
-      <c r="V28" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="W28" s="3">
-        <v>51</v>
-      </c>
-      <c r="X28" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>51</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>51</v>
+      <c r="AA28" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="AB28" s="3">
         <v>3.1E-2</v>
@@ -3206,22 +4396,67 @@
       <c r="AC28" s="3">
         <v>52</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>51</v>
+      </c>
+      <c r="AG28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>51</v>
+      </c>
+      <c r="AJ28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>51</v>
+      </c>
+      <c r="AM28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ28" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AR28" s="3">
         <v>52</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AS28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT28" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AU28" s="3">
         <v>52</v>
       </c>
-      <c r="AI28" s="2"/>
+      <c r="AV28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -3233,93 +4468,138 @@
       <c r="E29" s="3">
         <v>1205</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="22">
+        <v>16.220462850182699</v>
+      </c>
+      <c r="G29" s="2">
         <v>0.104</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>127</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="24">
+        <v>4.1339829476248404</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>105</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="23">
+        <v>3.89403166869671</v>
+      </c>
+      <c r="M29" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="N29" s="2">
         <v>1207</v>
       </c>
-      <c r="L29" s="2">
+      <c r="O29" s="24">
+        <v>16.225334957369</v>
+      </c>
+      <c r="P29" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="Q29" s="3">
         <v>131</v>
       </c>
-      <c r="N29" s="3">
+      <c r="R29" s="24">
+        <v>4.2448233861144899</v>
+      </c>
+      <c r="S29" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O29" s="3">
+      <c r="T29" s="3">
         <v>105</v>
       </c>
-      <c r="P29" s="3">
+      <c r="U29" s="22">
+        <v>3.89403166869671</v>
+      </c>
+      <c r="V29" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="W29" s="3">
         <v>1211</v>
       </c>
-      <c r="R29" s="2">
+      <c r="X29" s="22">
+        <v>16.233861144945099</v>
+      </c>
+      <c r="Y29" s="2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="S29" s="3">
+      <c r="Z29" s="3">
         <v>130</v>
       </c>
-      <c r="T29" s="3">
+      <c r="AA29" s="22">
+        <v>4.23507917174177</v>
+      </c>
+      <c r="AB29" s="3">
         <v>0.26200000000000001</v>
       </c>
-      <c r="U29" s="2">
+      <c r="AC29" s="2">
         <v>105</v>
       </c>
-      <c r="V29" s="2">
+      <c r="AD29" s="23">
+        <v>3.89159561510353</v>
+      </c>
+      <c r="AE29" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="W29" s="2">
+      <c r="AF29" s="2">
         <v>1206</v>
       </c>
-      <c r="X29" s="2">
+      <c r="AG29" s="24">
+        <v>16.230207064555401</v>
+      </c>
+      <c r="AH29" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AI29" s="3">
         <v>132</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AJ29" s="24">
+        <v>4.2448233861144899</v>
+      </c>
+      <c r="AK29" s="3">
         <v>0.64900000000000002</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AL29" s="2">
         <v>105</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AM29" s="23">
+        <v>3.9037758830694198</v>
+      </c>
+      <c r="AN29" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AO29" s="2">
         <v>1209</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AP29" s="23">
+        <v>16.218026796589498</v>
+      </c>
+      <c r="AQ29" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AR29" s="3">
         <v>130</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AS29" s="22">
+        <v>4.1936662606577304</v>
+      </c>
+      <c r="AT29" s="3">
         <v>0.52400000000000002</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AU29" s="2">
         <v>105</v>
       </c>
+      <c r="AV29" s="23">
+        <v>3.89403166869671</v>
+      </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
       <c r="C30" s="11" t="s">
         <v>7</v>
       </c>
@@ -3329,93 +4609,138 @@
       <c r="E30" s="3">
         <v>2892</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="22">
+        <v>10.116537867078801</v>
+      </c>
+      <c r="G30" s="2">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>491</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="24">
+        <v>4.6516228748068</v>
+      </c>
+      <c r="J30" s="3">
         <v>2.0950000000000002</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>319</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="23">
+        <v>3.6831530139103501</v>
+      </c>
+      <c r="M30" s="2">
         <v>0.127</v>
       </c>
-      <c r="K30" s="2">
+      <c r="N30" s="2">
         <v>2894</v>
       </c>
-      <c r="L30" s="2">
+      <c r="O30" s="24">
+        <v>10.121483771251899</v>
+      </c>
+      <c r="P30" s="2">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M30" s="3">
+      <c r="Q30" s="3">
         <v>482</v>
       </c>
-      <c r="N30" s="3">
+      <c r="R30" s="24">
+        <v>4.5353941267387903</v>
+      </c>
+      <c r="S30" s="3">
         <v>2.177</v>
       </c>
-      <c r="O30" s="2">
+      <c r="T30" s="2">
         <v>322</v>
       </c>
-      <c r="P30" s="2">
+      <c r="U30" s="23">
+        <v>3.7706336939721701</v>
+      </c>
+      <c r="V30" s="2">
         <v>0.124</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="W30" s="2">
         <v>2880</v>
       </c>
-      <c r="R30" s="2">
+      <c r="X30" s="23">
+        <v>10.113137557959799</v>
+      </c>
+      <c r="Y30" s="2">
         <v>0.443</v>
       </c>
-      <c r="S30" s="3">
+      <c r="Z30" s="3">
         <v>505</v>
       </c>
-      <c r="T30" s="3">
+      <c r="AA30" s="22">
+        <v>4.7375579598145201</v>
+      </c>
+      <c r="AB30" s="3">
         <v>2.1720000000000002</v>
       </c>
-      <c r="U30" s="2">
+      <c r="AC30" s="2">
         <v>321</v>
       </c>
-      <c r="V30" s="2">
+      <c r="AD30" s="23">
+        <v>3.7213292117465202</v>
+      </c>
+      <c r="AE30" s="2">
         <v>0.128</v>
       </c>
-      <c r="W30" s="2">
+      <c r="AF30" s="2">
         <v>2891</v>
       </c>
-      <c r="X30" s="2">
+      <c r="AG30" s="24">
+        <v>10.1261205564142</v>
+      </c>
+      <c r="AH30" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="AI30" s="3">
         <v>504</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="AJ30" s="24">
+        <v>4.70602782071097</v>
+      </c>
+      <c r="AK30" s="3">
         <v>1.9319999999999999</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AL30" s="2">
         <v>321</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AM30" s="23">
+        <v>3.7811437403400299</v>
+      </c>
+      <c r="AN30" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AO30" s="2">
         <v>2893</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AP30" s="23">
+        <v>10.1125193199381</v>
+      </c>
+      <c r="AQ30" s="2">
         <v>0.42899999999999999</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AR30" s="3">
         <v>508</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AS30" s="22">
+        <v>4.7312210200927298</v>
+      </c>
+      <c r="AT30" s="3">
         <v>1.931</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AU30" s="2">
         <v>315</v>
       </c>
+      <c r="AV30" s="23">
+        <v>3.7754250386398698</v>
+      </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
       <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
@@ -3425,94 +4750,139 @@
       <c r="E31" s="2">
         <v>6223</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="23">
+        <v>6.77396901660045</v>
+      </c>
+      <c r="G31" s="2">
         <v>6.9960000000000004</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>1449</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="24">
+        <v>4.3201207305429703</v>
+      </c>
+      <c r="J31" s="2">
         <v>8.7759999999999998</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>939</v>
       </c>
-      <c r="J31" s="2">
+      <c r="L31" s="23">
+        <v>3.7531799562659698</v>
+      </c>
+      <c r="M31" s="2">
         <v>0.997</v>
       </c>
-      <c r="K31" s="2">
+      <c r="N31" s="2">
         <v>6194</v>
       </c>
-      <c r="L31" s="2">
+      <c r="O31" s="24">
+        <v>6.7788967938649103</v>
+      </c>
+      <c r="P31" s="2">
         <v>6.2560000000000002</v>
       </c>
-      <c r="M31" s="2">
+      <c r="Q31" s="2">
         <v>1415</v>
       </c>
-      <c r="N31" s="2">
+      <c r="R31" s="24">
+        <v>4.2572915704210104</v>
+      </c>
+      <c r="S31" s="2">
         <v>10.025</v>
       </c>
-      <c r="O31" s="2">
+      <c r="T31" s="2">
         <v>937</v>
       </c>
-      <c r="P31" s="2">
+      <c r="U31" s="23">
+        <v>3.7485909636884398</v>
+      </c>
+      <c r="V31" s="2">
         <v>0.375</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="W31" s="2">
         <v>6198</v>
       </c>
-      <c r="R31" s="2">
+      <c r="X31" s="23">
+        <v>6.7642982537189296</v>
+      </c>
+      <c r="Y31" s="2">
         <v>6.5819999999999999</v>
       </c>
-      <c r="S31" s="2">
+      <c r="Z31" s="2">
         <v>1489</v>
       </c>
-      <c r="T31" s="2">
+      <c r="AA31" s="23">
+        <v>4.3884012442637497</v>
+      </c>
+      <c r="AB31" s="2">
         <v>8.8989999999999991</v>
       </c>
-      <c r="U31" s="2">
+      <c r="AC31" s="2">
         <v>931</v>
       </c>
-      <c r="V31" s="2">
+      <c r="AD31" s="23">
+        <v>3.8216144630262701</v>
+      </c>
+      <c r="AE31" s="2">
         <v>1.1779999999999999</v>
       </c>
-      <c r="W31" s="2">
+      <c r="AF31" s="2">
         <v>6175</v>
       </c>
-      <c r="X31" s="2">
+      <c r="AG31" s="24">
+        <v>6.7886599525701401</v>
+      </c>
+      <c r="AH31" s="2">
         <v>8.0570000000000004</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="AI31" s="2">
         <v>1569</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AJ31" s="24">
+        <v>4.4203394006590901</v>
+      </c>
+      <c r="AK31" s="2">
         <v>7.8920000000000003</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AL31" s="2">
         <v>942</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AM31" s="23">
+        <v>3.8231543934214098</v>
+      </c>
+      <c r="AN31" s="2">
         <v>0.79400000000000004</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AO31" s="2">
         <v>6099</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AP31" s="23">
+        <v>6.7724906834210996</v>
+      </c>
+      <c r="AQ31" s="2">
         <v>4.8109999999999999</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AR31" s="2">
         <v>1557</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AS31" s="23">
+        <v>4.4549570359419697</v>
+      </c>
+      <c r="AT31" s="2">
         <v>7.492</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AU31" s="2">
         <v>945</v>
       </c>
-      <c r="AJ31" s="2"/>
+      <c r="AV31" s="23">
+        <v>3.8325171702239</v>
+      </c>
+      <c r="AY31" s="2"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
       <c r="C32" s="11" t="s">
         <v>9</v>
       </c>
@@ -3522,93 +4892,138 @@
       <c r="E32" s="3">
         <v>11186</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="22">
+        <v>4.7013864616101504</v>
+      </c>
+      <c r="G32" s="2">
         <v>37.484999999999999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3774</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="24">
+        <v>3.6679393075757898</v>
+      </c>
+      <c r="J32" s="3">
         <v>22.998000000000001</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>2415</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="23">
+        <v>3.4576398784717499</v>
+      </c>
+      <c r="M32" s="2">
         <v>4.109</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N32" s="2">
         <v>11258</v>
       </c>
-      <c r="L32" s="2">
+      <c r="O32" s="24">
+        <v>4.7068892892031604</v>
+      </c>
+      <c r="P32" s="2">
         <v>34.414999999999999</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>3845</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="24">
+        <v>3.6560732754371301</v>
+      </c>
+      <c r="S32" s="3">
         <v>19.353000000000002</v>
       </c>
-      <c r="O32" s="2">
+      <c r="T32" s="2">
         <v>2423</v>
       </c>
-      <c r="P32" s="2">
+      <c r="U32" s="23">
+        <v>3.4636714794002401</v>
+      </c>
+      <c r="V32" s="2">
         <v>4.1059999999999999</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="W32" s="2">
         <v>11122</v>
       </c>
-      <c r="R32" s="2">
+      <c r="X32" s="23">
+        <v>4.6934700388965496</v>
+      </c>
+      <c r="Y32" s="2">
         <v>34.676000000000002</v>
       </c>
-      <c r="S32" s="3">
+      <c r="Z32" s="3">
         <v>3685</v>
       </c>
-      <c r="T32" s="3">
+      <c r="AA32" s="22">
+        <v>3.6290935489074898</v>
+      </c>
+      <c r="AB32" s="3">
         <v>18.298999999999999</v>
       </c>
-      <c r="U32" s="2">
+      <c r="AC32" s="2">
         <v>2427</v>
       </c>
-      <c r="V32" s="2">
+      <c r="AD32" s="23">
+        <v>3.4358834178780699</v>
+      </c>
+      <c r="AE32" s="2">
         <v>2.4940000000000002</v>
       </c>
-      <c r="W32" s="2">
+      <c r="AF32" s="2">
         <v>11359</v>
       </c>
-      <c r="X32" s="2">
+      <c r="AG32" s="24">
+        <v>4.7225194705096802</v>
+      </c>
+      <c r="AH32" s="2">
         <v>33.716000000000001</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AI32" s="3">
         <v>3869</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AJ32" s="24">
+        <v>3.6611459145538099</v>
+      </c>
+      <c r="AK32" s="3">
         <v>22.145</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AL32" s="2">
         <v>2403</v>
       </c>
-      <c r="AB32" s="2">
+      <c r="AM32" s="23">
+        <v>3.42574319540415</v>
+      </c>
+      <c r="AN32" s="2">
         <v>3.8460000000000001</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AO32" s="2">
         <v>11283</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AP32" s="23">
+        <v>4.7057331576730297</v>
+      </c>
+      <c r="AQ32" s="2">
         <v>34.359000000000002</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AR32" s="3">
         <v>3841</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AS32" s="22">
+        <v>3.6685845902902798</v>
+      </c>
+      <c r="AT32" s="3">
         <v>20.838999999999999</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AU32" s="2">
         <v>2386</v>
       </c>
+      <c r="AV32" s="23">
+        <v>3.4194965002375</v>
+      </c>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
+    <row r="33" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
       <c r="C33" s="11" t="s">
         <v>10</v>
       </c>
@@ -3618,93 +5033,138 @@
       <c r="E33" s="3">
         <v>11186</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="22">
+        <v>3.3761662346237098</v>
+      </c>
+      <c r="G33" s="2">
         <v>53.396999999999998</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5570</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="24">
+        <v>2.9540596406853101</v>
+      </c>
+      <c r="J33" s="3">
         <v>27.728000000000002</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>4944</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="23">
+        <v>2.8919992647141499</v>
+      </c>
+      <c r="M33" s="2">
         <v>7.9539999999999997</v>
       </c>
-      <c r="K33" s="2">
+      <c r="N33" s="2">
         <v>11258</v>
       </c>
-      <c r="L33" s="2">
+      <c r="O33" s="24">
+        <v>3.3823974069919598</v>
+      </c>
+      <c r="P33" s="2">
         <v>58.036999999999999</v>
       </c>
-      <c r="M33" s="2">
+      <c r="Q33" s="2">
         <v>5711</v>
       </c>
-      <c r="N33" s="2">
+      <c r="R33" s="24">
+        <v>2.9151945318742598</v>
+      </c>
+      <c r="S33" s="2">
         <v>31.602</v>
       </c>
-      <c r="O33" s="2">
+      <c r="T33" s="2">
         <v>4926</v>
       </c>
-      <c r="P33" s="2">
+      <c r="U33" s="23">
+        <v>2.8911289263701199</v>
+      </c>
+      <c r="V33" s="2">
         <v>6.6219999999999999</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="W33" s="2">
         <v>11122</v>
       </c>
-      <c r="R33" s="2">
+      <c r="X33" s="23">
+        <v>3.37455403534703</v>
+      </c>
+      <c r="Y33" s="2">
         <v>53.607999999999997</v>
       </c>
-      <c r="S33" s="2">
+      <c r="Z33" s="2">
         <v>5666</v>
       </c>
-      <c r="T33" s="2">
+      <c r="AA33" s="23">
+        <v>2.89930483911508</v>
+      </c>
+      <c r="AB33" s="2">
         <v>25.998000000000001</v>
       </c>
-      <c r="U33" s="2">
+      <c r="AC33" s="2">
         <v>4771</v>
       </c>
-      <c r="V33" s="2">
+      <c r="AD33" s="23">
+        <v>2.8763303908732398</v>
+      </c>
+      <c r="AE33" s="2">
         <v>7.0860000000000003</v>
       </c>
-      <c r="W33" s="2">
+      <c r="AF33" s="2">
         <v>11359</v>
       </c>
-      <c r="X33" s="2">
+      <c r="AG33" s="24">
+        <v>3.4033267932908902</v>
+      </c>
+      <c r="AH33" s="2">
         <v>59.418999999999997</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AI33" s="2">
         <v>5782</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AJ33" s="24">
+        <v>2.9196850275544599</v>
+      </c>
+      <c r="AK33" s="2">
         <v>29.972999999999999</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AL33" s="2">
         <v>4681</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AM33" s="23">
+        <v>2.88050854769791</v>
+      </c>
+      <c r="AN33" s="2">
         <v>6.1050000000000004</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AO33" s="2">
         <v>11283</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AP33" s="23">
+        <v>3.3878895420594701</v>
+      </c>
+      <c r="AQ33" s="2">
         <v>56.779000000000003</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AR33" s="3">
         <v>5800</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AS33" s="22">
+        <v>2.9274918124420801</v>
+      </c>
+      <c r="AT33" s="3">
         <v>29.599</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AU33" s="2">
         <v>4696</v>
       </c>
+      <c r="AV33" s="23">
+        <v>2.87940186747598</v>
+      </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B34" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3716,93 +5176,138 @@
       <c r="E34" s="3">
         <v>93</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="22">
+        <v>4.8214285714285703</v>
+      </c>
+      <c r="G34" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>56</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="24">
+        <v>1.9166666666666601</v>
+      </c>
+      <c r="J34" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>57</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="22">
+        <v>1.96428571428571</v>
+      </c>
+      <c r="M34" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="N34" s="3">
         <v>95</v>
       </c>
-      <c r="L34" s="3">
+      <c r="O34" s="24">
+        <v>4.9166666666666599</v>
+      </c>
+      <c r="P34" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="M34" s="3">
+      <c r="Q34" s="3">
         <v>56</v>
       </c>
-      <c r="N34" s="3">
+      <c r="R34" s="24">
+        <v>1.9166666666666601</v>
+      </c>
+      <c r="S34" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="O34" s="3">
+      <c r="T34" s="3">
         <v>57</v>
       </c>
-      <c r="P34" s="3">
+      <c r="U34" s="22">
+        <v>1.96428571428571</v>
+      </c>
+      <c r="V34" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="W34" s="3">
         <v>92</v>
       </c>
-      <c r="R34" s="3">
+      <c r="X34" s="22">
+        <v>4.8452380952380896</v>
+      </c>
+      <c r="Y34" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S34" s="3">
+      <c r="Z34" s="3">
         <v>54</v>
       </c>
-      <c r="T34" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U34" s="3">
-        <v>55</v>
-      </c>
-      <c r="V34" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="W34" s="3">
-        <v>89</v>
-      </c>
-      <c r="X34" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>56</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>55</v>
+      <c r="AA34" s="22">
+        <v>1.8928571428571399</v>
       </c>
       <c r="AB34" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="AC34" s="3">
+        <v>55</v>
+      </c>
+      <c r="AD34" s="22">
+        <v>1.94047619047619</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>89</v>
+      </c>
+      <c r="AG34" s="24">
+        <v>4.6666666666666599</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>56</v>
+      </c>
+      <c r="AJ34" s="24">
+        <v>2.0238095238095202</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>55</v>
+      </c>
+      <c r="AM34" s="22">
+        <v>1.9047619047619</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AO34" s="3">
         <v>95</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AP34" s="22">
+        <v>4.9166666666666599</v>
+      </c>
+      <c r="AQ34" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AR34" s="3">
         <v>56</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AS34" s="22">
+        <v>1.9166666666666601</v>
+      </c>
+      <c r="AT34" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AU34" s="3">
         <v>57</v>
       </c>
+      <c r="AV34" s="22">
+        <v>1.96428571428571</v>
+      </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
+    <row r="35" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
       <c r="C35" s="11" t="s">
         <v>7</v>
       </c>
@@ -3812,93 +5317,138 @@
       <c r="E35" s="3">
         <v>93</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="22">
+        <v>2.9210526315789398</v>
+      </c>
+      <c r="G35" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="24">
+        <v>1.8684210526315701</v>
+      </c>
+      <c r="J35" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>73</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="22">
+        <v>1.8684210526315701</v>
+      </c>
+      <c r="M35" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>95</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="24">
+        <v>2.9913043478260799</v>
+      </c>
+      <c r="P35" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>74</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="24">
+        <v>1.8956521739130401</v>
+      </c>
+      <c r="S35" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>73</v>
       </c>
-      <c r="P35" s="3">
+      <c r="U35" s="22">
+        <v>1.8434782608695599</v>
+      </c>
+      <c r="V35" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="W35" s="3">
         <v>92</v>
       </c>
-      <c r="R35" s="3">
+      <c r="X35" s="22">
+        <v>2.9391304347826002</v>
+      </c>
+      <c r="Y35" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="S35" s="3">
+      <c r="Z35" s="3">
         <v>71</v>
       </c>
-      <c r="T35" s="3">
+      <c r="AA35" s="22">
+        <v>1.8434782608695599</v>
+      </c>
+      <c r="AB35" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="U35" s="3">
+      <c r="AC35" s="3">
         <v>71</v>
       </c>
-      <c r="V35" s="3">
+      <c r="AD35" s="22">
+        <v>1.8434782608695599</v>
+      </c>
+      <c r="AE35" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="W35" s="3">
+      <c r="AF35" s="3">
         <v>89</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AG35" s="24">
+        <v>2.7304347826086901</v>
+      </c>
+      <c r="AH35" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AI35" s="3">
         <v>71</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AJ35" s="24">
+        <v>1.7913043478260799</v>
+      </c>
+      <c r="AK35" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AL35" s="3">
         <v>71</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AM35" s="22">
+        <v>1.7913043478260799</v>
+      </c>
+      <c r="AN35" s="3">
         <v>0.02</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AO35" s="3">
         <v>95</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AP35" s="22">
+        <v>2.9913043478260799</v>
+      </c>
+      <c r="AQ35" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AR35" s="3">
         <v>73</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AS35" s="22">
+        <v>1.8434782608695599</v>
+      </c>
+      <c r="AT35" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AU35" s="3">
         <v>73</v>
       </c>
+      <c r="AV35" s="22">
+        <v>1.8434782608695599</v>
+      </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B36" s="27"/>
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
@@ -3908,93 +5458,138 @@
       <c r="E36" s="3">
         <v>93</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="22">
+        <v>2.07407407407407</v>
+      </c>
+      <c r="G36" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>93</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="24">
+        <v>2.07407407407407</v>
+      </c>
+      <c r="J36" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>93</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="22">
+        <v>2.07407407407407</v>
+      </c>
+      <c r="M36" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="N36" s="3">
         <v>95</v>
       </c>
-      <c r="L36" s="3">
+      <c r="O36" s="24">
+        <v>2.1272727272727199</v>
+      </c>
+      <c r="P36" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="M36" s="3">
+      <c r="Q36" s="3">
         <v>95</v>
       </c>
-      <c r="N36" s="3">
+      <c r="R36" s="24">
+        <v>2.1272727272727199</v>
+      </c>
+      <c r="S36" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="O36" s="3">
+      <c r="T36" s="3">
         <v>95</v>
       </c>
-      <c r="P36" s="3">
+      <c r="U36" s="22">
+        <v>2.1272727272727199</v>
+      </c>
+      <c r="V36" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="W36" s="3">
         <v>92</v>
       </c>
-      <c r="R36" s="3">
+      <c r="X36" s="22">
+        <v>2.0727272727272701</v>
+      </c>
+      <c r="Y36" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S36" s="3">
+      <c r="Z36" s="3">
         <v>92</v>
       </c>
-      <c r="T36" s="3">
+      <c r="AA36" s="22">
+        <v>2.0727272727272701</v>
+      </c>
+      <c r="AB36" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="U36" s="3">
+      <c r="AC36" s="3">
         <v>92</v>
       </c>
-      <c r="V36" s="3">
+      <c r="AD36" s="22">
+        <v>2.0727272727272701</v>
+      </c>
+      <c r="AE36" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="W36" s="3">
+      <c r="AF36" s="3">
         <v>89</v>
       </c>
-      <c r="X36" s="3">
+      <c r="AG36" s="24">
+        <v>1.8545454545454501</v>
+      </c>
+      <c r="AH36" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="AI36" s="3">
         <v>89</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="AJ36" s="24">
+        <v>1.8545454545454501</v>
+      </c>
+      <c r="AK36" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AL36" s="3">
         <v>89</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AM36" s="22">
+        <v>1.8545454545454501</v>
+      </c>
+      <c r="AN36" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AO36" s="3">
         <v>95</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AP36" s="22">
+        <v>2.1272727272727199</v>
+      </c>
+      <c r="AQ36" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AR36" s="3">
         <v>95</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AS36" s="22">
+        <v>2.1272727272727199</v>
+      </c>
+      <c r="AT36" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AU36" s="3">
         <v>95</v>
       </c>
+      <c r="AV36" s="22">
+        <v>2.1272727272727199</v>
+      </c>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B37" s="27"/>
       <c r="C37" s="11" t="s">
         <v>9</v>
       </c>
@@ -4004,93 +5599,138 @@
       <c r="E37" s="3">
         <v>93</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>93</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>93</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="N37" s="3">
         <v>95</v>
       </c>
-      <c r="L37" s="3">
+      <c r="O37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M37" s="3">
+      <c r="Q37" s="3">
         <v>95</v>
       </c>
-      <c r="N37" s="3">
+      <c r="R37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="O37" s="3">
+      <c r="T37" s="3">
         <v>95</v>
       </c>
-      <c r="P37" s="3">
+      <c r="U37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="3">
         <v>0.02</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="W37" s="3">
         <v>92</v>
       </c>
-      <c r="R37" s="3">
+      <c r="X37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y37" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S37" s="3">
+      <c r="Z37" s="3">
         <v>92</v>
       </c>
-      <c r="T37" s="3">
+      <c r="AA37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="U37" s="3">
+      <c r="AC37" s="3">
         <v>92</v>
       </c>
-      <c r="V37" s="3">
+      <c r="AD37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE37" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W37" s="3">
+      <c r="AF37" s="3">
         <v>89</v>
       </c>
-      <c r="X37" s="3">
+      <c r="AG37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH37" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="AI37" s="3">
         <v>89</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="AJ37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK37" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AL37" s="3">
         <v>89</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AM37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN37" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AO37" s="3">
         <v>95</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AP37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ37" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AR37" s="3">
         <v>95</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AS37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT37" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AU37" s="3">
         <v>95</v>
       </c>
+      <c r="AV37" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
       <c r="C38" s="11" t="s">
         <v>10</v>
       </c>
@@ -4100,93 +5740,138 @@
       <c r="E38" s="3">
         <v>93</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>93</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I38" s="3">
+      <c r="K38" s="3">
         <v>93</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="N38" s="3">
         <v>95</v>
       </c>
-      <c r="L38" s="3">
+      <c r="O38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="M38" s="3">
+      <c r="Q38" s="3">
         <v>95</v>
       </c>
-      <c r="N38" s="3">
+      <c r="R38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O38" s="3">
+      <c r="T38" s="3">
         <v>95</v>
       </c>
-      <c r="P38" s="3">
+      <c r="U38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="W38" s="3">
         <v>92</v>
       </c>
-      <c r="R38" s="3">
+      <c r="X38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y38" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="S38" s="3">
+      <c r="Z38" s="3">
         <v>92</v>
       </c>
-      <c r="T38" s="3">
+      <c r="AA38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U38" s="3">
+      <c r="AC38" s="3">
         <v>92</v>
       </c>
-      <c r="V38" s="3">
+      <c r="AD38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="W38" s="3">
+      <c r="AF38" s="3">
         <v>89</v>
       </c>
-      <c r="X38" s="3">
+      <c r="AG38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH38" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="AI38" s="3">
         <v>89</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="AJ38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK38" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AL38" s="3">
         <v>89</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AM38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN38" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AO38" s="3">
         <v>95</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AP38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ38" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AR38" s="3">
         <v>95</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AS38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT38" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AU38" s="3">
         <v>95</v>
       </c>
+      <c r="AV38" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B39" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -4198,93 +5883,138 @@
       <c r="E39" s="3">
         <v>1835</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="22">
+        <v>25.487268518518501</v>
+      </c>
+      <c r="G39" s="2">
         <v>0.497</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>118</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="24">
+        <v>3.9317129629629601</v>
+      </c>
+      <c r="J39" s="3">
         <v>0.192</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>95</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="23">
+        <v>3.7893518518518499</v>
+      </c>
+      <c r="M39" s="2">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K39" s="2">
+      <c r="N39" s="2">
         <v>1822</v>
       </c>
-      <c r="L39" s="2">
+      <c r="O39" s="24">
+        <v>25.480324074074002</v>
+      </c>
+      <c r="P39" s="2">
         <v>0.49099999999999999</v>
       </c>
-      <c r="M39" s="3">
+      <c r="Q39" s="3">
         <v>118</v>
       </c>
-      <c r="N39" s="3">
+      <c r="R39" s="24">
+        <v>3.9317129629629601</v>
+      </c>
+      <c r="S39" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O39" s="3">
+      <c r="T39" s="3">
         <v>95</v>
       </c>
-      <c r="P39" s="3">
+      <c r="U39" s="22">
+        <v>3.7997685185185102</v>
+      </c>
+      <c r="V39" s="3">
         <v>0.317</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="W39" s="3">
         <v>1839</v>
       </c>
-      <c r="R39" s="2">
+      <c r="X39" s="22">
+        <v>25.494212962962902</v>
+      </c>
+      <c r="Y39" s="2">
         <v>0.443</v>
       </c>
-      <c r="S39" s="3">
+      <c r="Z39" s="3">
         <v>118</v>
       </c>
-      <c r="T39" s="3">
+      <c r="AA39" s="22">
+        <v>3.9317129629629601</v>
+      </c>
+      <c r="AB39" s="3">
         <v>0.44700000000000001</v>
       </c>
-      <c r="U39" s="2">
+      <c r="AC39" s="2">
         <v>95</v>
       </c>
-      <c r="V39" s="2">
+      <c r="AD39" s="23">
+        <v>3.7893518518518499</v>
+      </c>
+      <c r="AE39" s="2">
         <v>0.36899999999999999</v>
       </c>
-      <c r="W39" s="2">
+      <c r="AF39" s="2">
         <v>1832</v>
       </c>
-      <c r="X39" s="2">
+      <c r="AG39" s="24">
+        <v>25.494212962962902</v>
+      </c>
+      <c r="AH39" s="2">
         <v>0.58899999999999997</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="AI39" s="3">
         <v>118</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="AJ39" s="24">
+        <v>3.9317129629629601</v>
+      </c>
+      <c r="AK39" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AL39" s="2">
         <v>95</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AM39" s="23">
+        <v>3.7893518518518499</v>
+      </c>
+      <c r="AN39" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AO39" s="2">
         <v>1832</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AP39" s="23">
+        <v>25.483796296296202</v>
+      </c>
+      <c r="AQ39" s="2">
         <v>0.38100000000000001</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AR39" s="3">
         <v>118</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AS39" s="22">
+        <v>3.9317129629629601</v>
+      </c>
+      <c r="AT39" s="3">
         <v>0.42799999999999999</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AU39" s="2">
         <v>95</v>
       </c>
+      <c r="AV39" s="23">
+        <v>3.7893518518518499</v>
+      </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
+    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B40" s="27"/>
       <c r="C40" s="11" t="s">
         <v>7</v>
       </c>
@@ -4294,93 +6024,138 @@
       <c r="E40" s="3">
         <v>4071</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="22">
+        <v>14.347155392018101</v>
+      </c>
+      <c r="G40" s="2">
         <v>1.048</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>544</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="24">
+        <v>5.4950467025191001</v>
+      </c>
+      <c r="J40" s="3">
         <v>2.9340000000000002</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>313</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="23">
+        <v>4.6374186243985198</v>
+      </c>
+      <c r="M40" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="K40" s="2">
+      <c r="N40" s="2">
         <v>4049</v>
       </c>
-      <c r="L40" s="2">
+      <c r="O40" s="24">
+        <v>14.331587885649499</v>
+      </c>
+      <c r="P40" s="2">
         <v>1.246</v>
       </c>
-      <c r="M40" s="3">
+      <c r="Q40" s="3">
         <v>540</v>
       </c>
-      <c r="N40" s="3">
+      <c r="R40" s="24">
+        <v>5.48995188225304</v>
+      </c>
+      <c r="S40" s="3">
         <v>3.5470000000000002</v>
       </c>
-      <c r="O40" s="2">
+      <c r="T40" s="2">
         <v>312</v>
       </c>
-      <c r="P40" s="2">
+      <c r="U40" s="23">
+        <v>4.6245400509482</v>
+      </c>
+      <c r="V40" s="2">
         <v>0.54400000000000004</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>4068</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="S40" s="3">
-        <v>541</v>
-      </c>
-      <c r="T40" s="3">
-        <v>2.8490000000000002</v>
-      </c>
-      <c r="U40" s="2">
-        <v>311</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0.54700000000000004</v>
       </c>
       <c r="W40" s="2">
         <v>4068</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40" s="23">
+        <v>14.3453155958109</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>541</v>
+      </c>
+      <c r="AA40" s="22">
+        <v>5.4975941126521297</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>311</v>
+      </c>
+      <c r="AD40" s="23">
+        <v>4.6251061420888702</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>4068</v>
+      </c>
+      <c r="AG40" s="24">
+        <v>14.3482875742994</v>
+      </c>
+      <c r="AH40" s="2">
         <v>1.4059999999999999</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="AI40" s="3">
         <v>546</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="AJ40" s="24">
+        <v>5.4975941126521297</v>
+      </c>
+      <c r="AK40" s="3">
         <v>2.4430000000000001</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AL40" s="2">
         <v>315</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AM40" s="23">
+        <v>4.6453439003679504</v>
+      </c>
+      <c r="AN40" s="2">
         <v>0.54300000000000004</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AO40" s="2">
         <v>4072</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AP40" s="23">
+        <v>14.341494480611299</v>
+      </c>
+      <c r="AQ40" s="2">
         <v>1.478</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AR40" s="3">
         <v>539</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AS40" s="22">
+        <v>5.4906594961788802</v>
+      </c>
+      <c r="AT40" s="3">
         <v>2.3119999999999998</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AU40" s="2">
         <v>313</v>
       </c>
+      <c r="AV40" s="23">
+        <v>4.6619020662326598</v>
+      </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
+    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B41" s="27"/>
       <c r="C41" s="11" t="s">
         <v>8</v>
       </c>
@@ -4390,94 +6165,139 @@
       <c r="E41" s="2">
         <v>7917</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="23">
+        <v>8.7694922088769793</v>
+      </c>
+      <c r="G41" s="2">
         <v>6.9729999999999999</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>1808</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="24">
+        <v>5.2373916299432501</v>
+      </c>
+      <c r="J41" s="2">
         <v>18.977</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>1033</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="23">
+        <v>4.6644776635271699</v>
+      </c>
+      <c r="M41" s="2">
         <v>1.125</v>
       </c>
-      <c r="K41" s="2">
+      <c r="N41" s="2">
         <v>7895</v>
       </c>
-      <c r="L41" s="2">
+      <c r="O41" s="24">
+        <v>8.7535067254241099</v>
+      </c>
+      <c r="P41" s="2">
         <v>5.9560000000000004</v>
       </c>
-      <c r="M41" s="2">
+      <c r="Q41" s="2">
         <v>1804</v>
       </c>
-      <c r="N41" s="2">
+      <c r="R41" s="24">
+        <v>5.2259857714795901</v>
+      </c>
+      <c r="S41" s="2">
         <v>16.181000000000001</v>
       </c>
-      <c r="O41" s="2">
+      <c r="T41" s="2">
         <v>1033</v>
       </c>
-      <c r="P41" s="2">
+      <c r="U41" s="23">
+        <v>4.6785909732423097</v>
+      </c>
+      <c r="V41" s="2">
         <v>1.165</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="W41" s="2">
         <v>7876</v>
       </c>
-      <c r="R41" s="2">
+      <c r="X41" s="23">
+        <v>8.7625219620380701</v>
+      </c>
+      <c r="Y41" s="2">
         <v>7.415</v>
       </c>
-      <c r="S41" s="2">
+      <c r="Z41" s="2">
         <v>1805</v>
       </c>
-      <c r="T41" s="2">
+      <c r="AA41" s="23">
+        <v>5.2343097439442303</v>
+      </c>
+      <c r="AB41" s="2">
         <v>15.433999999999999</v>
       </c>
-      <c r="U41" s="2">
+      <c r="AC41" s="2">
         <v>1032</v>
       </c>
-      <c r="V41" s="2">
+      <c r="AD41" s="23">
+        <v>4.6573634033238198</v>
+      </c>
+      <c r="AE41" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="W41" s="2">
+      <c r="AF41" s="2">
         <v>7914</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AG41" s="24">
+        <v>8.7685417206716707</v>
+      </c>
+      <c r="AH41" s="3">
         <v>3.3450000000000002</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AI41" s="2">
         <v>1803</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AJ41" s="24">
+        <v>5.2225294507330204</v>
+      </c>
+      <c r="AK41" s="2">
         <v>15.846</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AL41" s="2">
         <v>1039</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AM41" s="23">
+        <v>4.6775252743454496</v>
+      </c>
+      <c r="AN41" s="2">
         <v>1.0009999999999999</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AO41" s="2">
         <v>7928</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AP41" s="23">
+        <v>8.7622915406549708</v>
+      </c>
+      <c r="AQ41" s="2">
         <v>5.2460000000000004</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AR41" s="2">
         <v>1809</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AS41" s="23">
+        <v>5.2331864397016004</v>
+      </c>
+      <c r="AT41" s="2">
         <v>17.143000000000001</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AU41" s="2">
         <v>1037</v>
       </c>
-      <c r="AJ41" s="2"/>
+      <c r="AV41" s="23">
+        <v>4.6529277916990699</v>
+      </c>
+      <c r="AY41" s="2"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
+    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B42" s="27"/>
       <c r="C42" s="11" t="s">
         <v>9</v>
       </c>
@@ -4487,93 +6307,138 @@
       <c r="E42" s="3">
         <v>10797</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="22">
+        <v>5.6802498349108497</v>
+      </c>
+      <c r="G42" s="2">
         <v>20.204999999999998</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4124</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="24">
+        <v>4.1799288282339102</v>
+      </c>
+      <c r="J42" s="3">
         <v>28.492999999999999</v>
       </c>
-      <c r="I42" s="2">
+      <c r="K42" s="2">
         <v>2846</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="23">
+        <v>4.00525533788245</v>
+      </c>
+      <c r="M42" s="2">
         <v>2.2280000000000002</v>
       </c>
-      <c r="K42" s="2">
+      <c r="N42" s="2">
         <v>10775</v>
       </c>
-      <c r="L42" s="2">
+      <c r="O42" s="24">
+        <v>5.6662539437963098</v>
+      </c>
+      <c r="P42" s="2">
         <v>18.919</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>4122</v>
       </c>
-      <c r="N42" s="3">
+      <c r="R42" s="24">
+        <v>4.1785897718101097</v>
+      </c>
+      <c r="S42" s="3">
         <v>31.032</v>
       </c>
-      <c r="O42" s="2">
+      <c r="T42" s="2">
         <v>2863</v>
       </c>
-      <c r="P42" s="2">
+      <c r="U42" s="23">
+        <v>4.0073556387115703</v>
+      </c>
+      <c r="V42" s="2">
         <v>2.625</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="W42" s="2">
         <v>10756</v>
       </c>
-      <c r="R42" s="2">
+      <c r="X42" s="23">
+        <v>5.6703811724998099</v>
+      </c>
+      <c r="Y42" s="2">
         <v>21.155999999999999</v>
       </c>
-      <c r="S42" s="3">
+      <c r="Z42" s="3">
         <v>4108</v>
       </c>
-      <c r="T42" s="3">
+      <c r="AA42" s="22">
+        <v>4.17317851639885</v>
+      </c>
+      <c r="AB42" s="3">
         <v>44.290999999999997</v>
       </c>
-      <c r="U42" s="2">
+      <c r="AC42" s="2">
         <v>2841</v>
       </c>
-      <c r="V42" s="2">
+      <c r="AD42" s="23">
+        <v>3.9999449702839498</v>
+      </c>
+      <c r="AE42" s="2">
         <v>2.2090000000000001</v>
       </c>
-      <c r="W42" s="2">
+      <c r="AF42" s="2">
         <v>10793</v>
       </c>
-      <c r="X42" s="2">
+      <c r="AG42" s="24">
+        <v>5.6787548609582501</v>
+      </c>
+      <c r="AH42" s="2">
         <v>16.341999999999999</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AI42" s="3">
         <v>4121</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AJ42" s="24">
+        <v>4.1784430259006502</v>
+      </c>
+      <c r="AK42" s="3">
         <v>47.276000000000003</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AL42" s="3">
         <v>2844</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AM42" s="22">
+        <v>4.0020452711130599</v>
+      </c>
+      <c r="AN42" s="3">
         <v>1.3340000000000001</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AO42" s="3">
         <v>10722</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AP42" s="22">
+        <v>5.6719403477877997</v>
+      </c>
+      <c r="AQ42" s="2">
         <v>10.321999999999999</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AR42" s="3">
         <v>4103</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AS42" s="22">
+        <v>4.1755723090468804</v>
+      </c>
+      <c r="AT42" s="3">
         <v>46.518000000000001</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AU42" s="2">
         <v>2870</v>
       </c>
+      <c r="AV42" s="23">
+        <v>4.0038429085039198</v>
+      </c>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B43" s="19"/>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B43" s="27"/>
       <c r="C43" s="11" t="s">
         <v>10</v>
       </c>
@@ -4583,94 +6448,139 @@
       <c r="E43" s="3">
         <v>10797</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="22">
+        <v>3.8528120670250701</v>
+      </c>
+      <c r="G43" s="2">
         <v>25.364000000000001</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7021</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="24">
+        <v>3.28075383035678</v>
+      </c>
+      <c r="J43" s="3">
         <v>82.004999999999995</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>6733</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="23">
+        <v>3.1927845359854001</v>
+      </c>
+      <c r="M43" s="2">
         <v>5.2610000000000001</v>
       </c>
-      <c r="K43" s="2">
+      <c r="N43" s="2">
         <v>10775</v>
       </c>
-      <c r="L43" s="2">
+      <c r="O43" s="24">
+        <v>3.8410239394496402</v>
+      </c>
+      <c r="P43" s="2">
         <v>29.605</v>
       </c>
-      <c r="M43" s="2">
+      <c r="Q43" s="2">
         <v>7011</v>
       </c>
-      <c r="N43" s="2">
+      <c r="R43" s="24">
+        <v>3.2735482308840802</v>
+      </c>
+      <c r="S43" s="2">
         <v>74.7</v>
       </c>
-      <c r="O43" s="2">
+      <c r="T43" s="2">
         <v>6722</v>
       </c>
-      <c r="P43" s="2">
+      <c r="U43" s="23">
+        <v>3.1889687518215699</v>
+      </c>
+      <c r="V43" s="2">
         <v>5.2469999999999999</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="W43" s="2">
         <v>10756</v>
       </c>
-      <c r="R43" s="2">
+      <c r="X43" s="23">
+        <v>3.8410598105111098</v>
+      </c>
+      <c r="Y43" s="2">
         <v>29.927</v>
       </c>
-      <c r="S43" s="2">
+      <c r="Z43" s="2">
         <v>7025</v>
       </c>
-      <c r="T43" s="2">
+      <c r="AA43" s="23">
+        <v>3.2733957788728398</v>
+      </c>
+      <c r="AB43" s="2">
         <v>77.628</v>
       </c>
-      <c r="U43" s="2">
+      <c r="AC43" s="2">
         <v>6650</v>
       </c>
-      <c r="V43" s="2">
+      <c r="AD43" s="23">
+        <v>3.1763242026535599</v>
+      </c>
+      <c r="AE43" s="2">
         <v>5.4950000000000001</v>
       </c>
-      <c r="W43" s="2">
+      <c r="AF43" s="2">
         <v>10793</v>
       </c>
-      <c r="X43" s="2">
+      <c r="AG43" s="24">
+        <v>3.8513234179740898</v>
+      </c>
+      <c r="AH43" s="2">
         <v>29.658999999999999</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AI43" s="2">
         <v>7017</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="AJ43" s="24">
+        <v>3.27926518130579</v>
+      </c>
+      <c r="AK43" s="2">
         <v>75.921999999999997</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AL43" s="2">
         <v>6727</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AM43" s="23">
+        <v>3.19016594849812</v>
+      </c>
+      <c r="AN43" s="2">
         <v>4.609</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AO43" s="2">
         <v>10722</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AP43" s="23">
+        <v>3.8438398177750002</v>
+      </c>
+      <c r="AQ43" s="2">
         <v>22.637</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AR43" s="2">
         <v>6919</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AS43" s="23">
+        <v>3.26634711529407</v>
+      </c>
+      <c r="AT43" s="2">
         <v>66.021000000000001</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AU43" s="2">
         <v>6695</v>
       </c>
-      <c r="AJ43" s="2"/>
+      <c r="AV43" s="23">
+        <v>3.19025562615179</v>
+      </c>
+      <c r="AY43" s="2"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B44" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -4682,93 +6592,138 @@
       <c r="E44" s="3">
         <v>999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="22">
+        <v>14.3592233009708</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="24">
+        <v>3.2357836338418799</v>
+      </c>
+      <c r="J44" s="3">
         <v>0.23699999999999999</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>94</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="23">
+        <v>3.1137309292649098</v>
+      </c>
+      <c r="M44" s="2">
         <v>0.17899999999999999</v>
       </c>
-      <c r="K44" s="2">
+      <c r="N44" s="2">
         <v>1009</v>
       </c>
-      <c r="L44" s="2">
+      <c r="O44" s="24">
+        <v>14.393897364771099</v>
+      </c>
+      <c r="P44" s="2">
         <v>0.42299999999999999</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>118</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="24">
+        <v>3.2552011095700402</v>
+      </c>
+      <c r="S44" s="3">
         <v>0.23499999999999999</v>
       </c>
-      <c r="O44" s="3">
+      <c r="T44" s="3">
         <v>95</v>
       </c>
-      <c r="P44" s="3">
+      <c r="U44" s="22">
+        <v>3.11789181692094</v>
+      </c>
+      <c r="V44" s="3">
         <v>0.184</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="W44" s="3">
         <v>1011</v>
       </c>
-      <c r="R44" s="2">
+      <c r="X44" s="22">
+        <v>14.399445214979099</v>
+      </c>
+      <c r="Y44" s="2">
         <v>0.26600000000000001</v>
       </c>
-      <c r="S44" s="3">
+      <c r="Z44" s="3">
         <v>117</v>
       </c>
-      <c r="T44" s="3">
+      <c r="AA44" s="22">
+        <v>3.2565880721220499</v>
+      </c>
+      <c r="AB44" s="3">
         <v>0.32500000000000001</v>
       </c>
-      <c r="U44" s="2">
+      <c r="AC44" s="2">
         <v>95</v>
       </c>
-      <c r="V44" s="2">
+      <c r="AD44" s="23">
+        <v>3.1276005547850199</v>
+      </c>
+      <c r="AE44" s="2">
         <v>0.182</v>
       </c>
-      <c r="W44" s="2">
+      <c r="AF44" s="2">
         <v>995</v>
       </c>
-      <c r="X44" s="2">
+      <c r="AG44" s="24">
+        <v>14.3509015256588</v>
+      </c>
+      <c r="AH44" s="2">
         <v>0.255</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AI44" s="3">
         <v>118</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AJ44" s="24">
+        <v>3.2552011095700402</v>
+      </c>
+      <c r="AK44" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AL44" s="2">
         <v>95</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AM44" s="23">
+        <v>3.11789181692094</v>
+      </c>
+      <c r="AN44" s="2">
         <v>0.184</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AO44" s="2">
         <v>998</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AP44" s="23">
+        <v>14.378640776698999</v>
+      </c>
+      <c r="AQ44" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AR44" s="3">
         <v>118</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AS44" s="22">
+        <v>3.2552011095700402</v>
+      </c>
+      <c r="AT44" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AG44" s="2">
+      <c r="AU44" s="2">
         <v>95</v>
       </c>
+      <c r="AV44" s="23">
+        <v>3.11789181692094</v>
+      </c>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
+    <row r="45" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B45" s="27"/>
       <c r="C45" s="11" t="s">
         <v>7</v>
       </c>
@@ -4778,94 +6733,139 @@
       <c r="E45" s="3">
         <v>1620</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="22">
+        <v>7.3890037205456798</v>
+      </c>
+      <c r="G45" s="2">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>418</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="24">
+        <v>3.5665564282761402</v>
+      </c>
+      <c r="J45" s="3">
         <v>1.4059999999999999</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>313</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="23">
+        <v>3.41194708557255</v>
+      </c>
+      <c r="M45" s="2">
         <v>0.27600000000000002</v>
       </c>
-      <c r="K45" s="2">
+      <c r="N45" s="2">
         <v>1629</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="24">
+        <v>7.4202149648615103</v>
+      </c>
+      <c r="P45" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>422</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="24">
+        <v>3.5680033071517099</v>
+      </c>
+      <c r="S45" s="3">
         <v>1.331</v>
       </c>
-      <c r="O45" s="2">
+      <c r="T45" s="2">
         <v>314</v>
       </c>
-      <c r="P45" s="2">
+      <c r="U45" s="23">
+        <v>3.41194708557255</v>
+      </c>
+      <c r="V45" s="2">
         <v>0.28299999999999997</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>1615</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="S45" s="3">
-        <v>419</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="U45" s="2">
-        <v>315</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.27700000000000002</v>
       </c>
       <c r="W45" s="2">
         <v>1615</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45" s="23">
+        <v>7.4162877221992503</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>419</v>
+      </c>
+      <c r="AA45" s="22">
+        <v>3.5628358825961102</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>315</v>
+      </c>
+      <c r="AD45" s="23">
+        <v>3.41525423728813</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>1615</v>
+      </c>
+      <c r="AG45" s="24">
+        <v>7.3819760231500604</v>
+      </c>
+      <c r="AH45" s="2">
         <v>0.628</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AI45" s="3">
         <v>422</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AJ45" s="24">
+        <v>3.5680033071517099</v>
+      </c>
+      <c r="AK45" s="3">
         <v>1.5169999999999999</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AL45" s="2">
         <v>315</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AM45" s="23">
+        <v>3.4005787515502202</v>
+      </c>
+      <c r="AN45" s="2">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AO45" s="2">
         <v>1618</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AP45" s="23">
+        <v>7.4038859032658104</v>
+      </c>
+      <c r="AQ45" s="2">
         <v>0.54300000000000004</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AR45" s="3">
         <v>421</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AS45" s="22">
+        <v>3.5979743695741999</v>
+      </c>
+      <c r="AT45" s="3">
         <v>1.6180000000000001</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AU45" s="2">
         <v>316</v>
       </c>
-      <c r="AJ45" s="2"/>
+      <c r="AV45" s="23">
+        <v>3.4402645721372398</v>
+      </c>
+      <c r="AY45" s="2"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
+    <row r="46" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B46" s="27"/>
       <c r="C46" s="11" t="s">
         <v>8</v>
       </c>
@@ -4875,94 +6875,139 @@
       <c r="E46" s="3">
         <v>2226</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="22">
+        <v>4.3182526432943797</v>
+      </c>
+      <c r="G46" s="2">
         <v>1.044</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1030</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="24">
+        <v>3.0754034501947598</v>
+      </c>
+      <c r="J46" s="2">
         <v>4.8179999999999996</v>
       </c>
-      <c r="I46" s="2">
+      <c r="K46" s="2">
         <v>912</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="23">
+        <v>3.0965498052309401</v>
+      </c>
+      <c r="M46" s="2">
         <v>0.442</v>
       </c>
-      <c r="K46" s="2">
+      <c r="N46" s="2">
         <v>2283</v>
       </c>
-      <c r="L46" s="2">
+      <c r="O46" s="24">
+        <v>4.3455759599332202</v>
+      </c>
+      <c r="P46" s="2">
         <v>1.323</v>
       </c>
-      <c r="M46" s="2">
+      <c r="Q46" s="2">
         <v>1055</v>
       </c>
-      <c r="N46" s="2">
+      <c r="R46" s="24">
+        <v>3.0992209237618198</v>
+      </c>
+      <c r="S46" s="2">
         <v>4.7450000000000001</v>
       </c>
-      <c r="O46" s="2">
+      <c r="T46" s="2">
         <v>924</v>
       </c>
-      <c r="P46" s="2">
+      <c r="U46" s="23">
+        <v>3.1116861435726202</v>
+      </c>
+      <c r="V46" s="2">
         <v>0.4</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>2269</v>
-      </c>
-      <c r="R46" s="2">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="S46" s="2">
-        <v>1047</v>
-      </c>
-      <c r="T46" s="2">
-        <v>4.2990000000000004</v>
-      </c>
-      <c r="U46" s="2">
-        <v>929</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.40600000000000003</v>
       </c>
       <c r="W46" s="2">
         <v>2269</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="23">
+        <v>4.33628269337785</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1047</v>
+      </c>
+      <c r="AA46" s="23">
+        <v>3.0855870895937598</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>929</v>
+      </c>
+      <c r="AD46" s="23">
+        <v>3.1101279910962698</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>2269</v>
+      </c>
+      <c r="AG46" s="24">
+        <v>4.3116861435726204</v>
+      </c>
+      <c r="AH46" s="2">
         <v>1.1519999999999999</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="AI46" s="2">
         <v>1050</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AJ46" s="24">
+        <v>3.09454646633277</v>
+      </c>
+      <c r="AK46" s="2">
         <v>4.3920000000000003</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AL46" s="2">
         <v>925</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AM46" s="23">
+        <v>3.1166944908180301</v>
+      </c>
+      <c r="AN46" s="2">
         <v>0.436</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AO46" s="2">
         <v>2272</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AP46" s="23">
+        <v>4.3318864774624304</v>
+      </c>
+      <c r="AQ46" s="2">
         <v>1.1910000000000001</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AR46" s="2">
         <v>1047</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AS46" s="23">
+        <v>3.1081803005008299</v>
+      </c>
+      <c r="AT46" s="2">
         <v>4.2350000000000003</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="AU46" s="2">
         <v>924</v>
       </c>
-      <c r="AJ46" s="2"/>
+      <c r="AV46" s="23">
+        <v>3.1124652198107898</v>
+      </c>
+      <c r="AY46" s="2"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B47" s="19"/>
+    <row r="47" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B47" s="27"/>
       <c r="C47" s="11" t="s">
         <v>9</v>
       </c>
@@ -4972,94 +7017,139 @@
       <c r="E47" s="3">
         <v>2802</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="22">
+        <v>2.7958600270553098</v>
+      </c>
+      <c r="G47" s="2">
         <v>1.829</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2107</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="24">
+        <v>2.5683912299956599</v>
+      </c>
+      <c r="J47" s="3">
         <v>8.5559999999999992</v>
       </c>
-      <c r="I47" s="2">
+      <c r="K47" s="2">
         <v>2052</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="23">
+        <v>2.5548635748742901</v>
+      </c>
+      <c r="M47" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K47" s="2">
+      <c r="N47" s="2">
         <v>2859</v>
       </c>
-      <c r="L47" s="2">
+      <c r="O47" s="24">
+        <v>2.8186018019857499</v>
+      </c>
+      <c r="P47" s="2">
         <v>1.077</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>2164</v>
       </c>
-      <c r="N47" s="3">
+      <c r="R47" s="24">
+        <v>2.5911330049261001</v>
+      </c>
+      <c r="S47" s="3">
         <v>6.9210000000000003</v>
       </c>
-      <c r="O47" s="2">
+      <c r="T47" s="2">
         <v>2109</v>
       </c>
-      <c r="P47" s="2">
+      <c r="U47" s="23">
+        <v>2.57760534980474</v>
+      </c>
+      <c r="V47" s="2">
         <v>0.23100000000000001</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>2845</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2161</v>
-      </c>
-      <c r="T47" s="3">
-        <v>10.769</v>
-      </c>
-      <c r="U47" s="2">
-        <v>2111</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.43099999999999999</v>
       </c>
       <c r="W47" s="2">
         <v>2845</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X47" s="23">
+        <v>2.8058909109471899</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>2161</v>
+      </c>
+      <c r="AA47" s="22">
+        <v>2.5843181296102502</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>10.769</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>2111</v>
+      </c>
+      <c r="AD47" s="23">
+        <v>2.57347048163557</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>2845</v>
+      </c>
+      <c r="AG47" s="24">
+        <v>2.7875137190841999</v>
+      </c>
+      <c r="AH47" s="2">
         <v>1.375</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AI47" s="3">
         <v>2151</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AJ47" s="24">
+        <v>2.5604022563107698</v>
+      </c>
+      <c r="AK47" s="3">
         <v>6.6509999999999998</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AL47" s="2">
         <v>2100</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AM47" s="23">
+        <v>2.5538426197707902</v>
+      </c>
+      <c r="AN47" s="2">
         <v>0.24199999999999999</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AO47" s="2">
         <v>2848</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AP47" s="23">
+        <v>2.8079132099553199</v>
+      </c>
+      <c r="AQ47" s="2">
         <v>0.94699999999999995</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AR47" s="3">
         <v>2162</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AS47" s="22">
+        <v>2.5884620293554499</v>
+      </c>
+      <c r="AT47" s="3">
         <v>6.9729999999999999</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AU47" s="2">
         <v>2111</v>
       </c>
-      <c r="AJ47" s="2"/>
+      <c r="AV47" s="23">
+        <v>2.5808296107211199</v>
+      </c>
+      <c r="AY47" s="2"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B48" s="19"/>
+    <row r="48" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B48" s="27"/>
       <c r="C48" s="11" t="s">
         <v>10</v>
       </c>
@@ -5069,94 +7159,139 @@
       <c r="E48" s="3">
         <v>2802</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="22">
+        <v>1.98197723234335</v>
+      </c>
+      <c r="G48" s="2">
         <v>1.012</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2784</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="24">
+        <v>1.95846757659188</v>
+      </c>
+      <c r="J48" s="2">
         <v>7.7169999999999996</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2784</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="22">
+        <v>1.95956104895241</v>
+      </c>
+      <c r="M48" s="2">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K48" s="2">
+      <c r="N48" s="2">
         <v>2859</v>
       </c>
-      <c r="L48" s="2">
+      <c r="O48" s="24">
+        <v>1.99945326381973</v>
+      </c>
+      <c r="P48" s="2">
         <v>1.169</v>
       </c>
-      <c r="M48" s="2">
+      <c r="Q48" s="2">
         <v>2841</v>
       </c>
-      <c r="N48" s="2">
+      <c r="R48" s="24">
+        <v>1.97594360806826</v>
+      </c>
+      <c r="S48" s="2">
         <v>9.4139999999999997</v>
       </c>
-      <c r="O48" s="2">
+      <c r="T48" s="2">
         <v>2840</v>
       </c>
-      <c r="P48" s="2">
+      <c r="U48" s="23">
+        <v>1.97457676761759</v>
+      </c>
+      <c r="V48" s="2">
         <v>0.69699999999999995</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>2845</v>
-      </c>
-      <c r="R48" s="2">
-        <v>2.1920000000000002</v>
-      </c>
-      <c r="S48" s="2">
-        <v>2827</v>
-      </c>
-      <c r="T48" s="2">
-        <v>9.4629999999999992</v>
-      </c>
-      <c r="U48" s="2">
-        <v>2826</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.42199999999999999</v>
       </c>
       <c r="W48" s="2">
         <v>2845</v>
       </c>
-      <c r="X48" s="2">
+      <c r="X48" s="23">
+        <v>1.98420322964872</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>2827</v>
+      </c>
+      <c r="AA48" s="23">
+        <v>1.96069357389725</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>9.4629999999999992</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>2826</v>
+      </c>
+      <c r="AD48" s="23">
+        <v>1.95932673344658</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>2845</v>
+      </c>
+      <c r="AG48" s="24">
+        <v>1.9704371936812899</v>
+      </c>
+      <c r="AH48" s="2">
         <v>2.0129999999999999</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="AI48" s="2">
         <v>2827</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AJ48" s="24">
+        <v>1.9469275379298201</v>
+      </c>
+      <c r="AK48" s="2">
         <v>8.5079999999999991</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AL48" s="2">
         <v>2827</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AM48" s="23">
+        <v>1.9480210102903499</v>
+      </c>
+      <c r="AN48" s="2">
         <v>0.89600000000000002</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AO48" s="2">
         <v>2848</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AP48" s="23">
+        <v>1.9913673561063201</v>
+      </c>
+      <c r="AQ48" s="2">
         <v>3.0070000000000001</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AR48" s="3">
         <v>2830</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AS48" s="22">
+        <v>1.9678521903869</v>
+      </c>
+      <c r="AT48" s="3">
         <v>8.7669999999999995</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="AU48" s="2">
         <v>2829</v>
       </c>
-      <c r="AJ48" s="2"/>
+      <c r="AV48" s="23">
+        <v>1.96648502958926</v>
+      </c>
+      <c r="AY48" s="2"/>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B49" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -5168,94 +7303,139 @@
       <c r="E49" s="3">
         <v>119</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="22">
+        <v>3.0169491525423702</v>
+      </c>
+      <c r="G49" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="24">
+        <v>1.9782082324455199</v>
+      </c>
+      <c r="J49" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>65</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="22">
+        <v>2.0072639225181499</v>
+      </c>
+      <c r="M49" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>124</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="24">
+        <v>3.10895883777239</v>
+      </c>
+      <c r="P49" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>69</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="24">
+        <v>1.98547215496368</v>
+      </c>
+      <c r="S49" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O49" s="3">
+      <c r="T49" s="3">
         <v>67</v>
       </c>
-      <c r="P49" s="3">
+      <c r="U49" s="22">
+        <v>2.0242130750605298</v>
+      </c>
+      <c r="V49" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="W49" s="2">
         <v>117</v>
       </c>
-      <c r="R49" s="3">
+      <c r="X49" s="23">
+        <v>2.9515738498789301</v>
+      </c>
+      <c r="Y49" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="S49" s="3">
+      <c r="Z49" s="3">
         <v>67</v>
       </c>
-      <c r="T49" s="3">
+      <c r="AA49" s="22">
+        <v>1.9636803874091999</v>
+      </c>
+      <c r="AB49" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="U49" s="3">
+      <c r="AC49" s="3">
         <v>67</v>
       </c>
-      <c r="V49" s="3">
+      <c r="AD49" s="22">
+        <v>1.9951573849878901</v>
+      </c>
+      <c r="AE49" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="W49" s="2">
+      <c r="AF49" s="2">
         <v>120</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AG49" s="24">
+        <v>3.01452784503631</v>
+      </c>
+      <c r="AH49" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AI49" s="3">
         <v>65</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AJ49" s="24">
+        <v>1.97336561743341</v>
+      </c>
+      <c r="AK49" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AL49" s="3">
         <v>66</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AM49" s="22">
+        <v>1.9927360774818399</v>
+      </c>
+      <c r="AN49" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AO49" s="2">
         <v>122</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AP49" s="23">
+        <v>3.0460048426150101</v>
+      </c>
+      <c r="AQ49" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AR49" s="3">
         <v>70</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AS49" s="22">
+        <v>1.98789346246973</v>
+      </c>
+      <c r="AT49" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AG49" s="3">
+      <c r="AU49" s="3">
         <v>68</v>
       </c>
-      <c r="AJ49" s="2"/>
+      <c r="AV49" s="22">
+        <v>2.0266343825665798</v>
+      </c>
+      <c r="AY49" s="2"/>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B50" s="27"/>
       <c r="C50" s="11" t="s">
         <v>7</v>
       </c>
@@ -5265,93 +7445,138 @@
       <c r="E50" s="3">
         <v>119</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="22">
+        <v>1.71050308914386</v>
+      </c>
+      <c r="G50" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>116</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="24">
+        <v>1.65489849955869</v>
+      </c>
+      <c r="J50" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I50" s="2">
+      <c r="K50" s="2">
         <v>116</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="23">
+        <v>1.65489849955869</v>
+      </c>
+      <c r="M50" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="N50" s="3">
         <v>124</v>
       </c>
-      <c r="L50" s="2">
+      <c r="O50" s="24">
+        <v>1.8022847100175701</v>
+      </c>
+      <c r="P50" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="M50" s="2">
+      <c r="Q50" s="2">
         <v>121</v>
       </c>
-      <c r="N50" s="3">
+      <c r="R50" s="24">
+        <v>1.7469244288224901</v>
+      </c>
+      <c r="S50" s="3">
         <v>0.105</v>
       </c>
-      <c r="O50" s="2">
+      <c r="T50" s="2">
         <v>121</v>
       </c>
-      <c r="P50" s="2">
+      <c r="U50" s="23">
+        <v>1.7469244288224901</v>
+      </c>
+      <c r="V50" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="W50" s="2">
         <v>117</v>
       </c>
-      <c r="R50" s="2">
+      <c r="X50" s="23">
+        <v>1.6474245115452899</v>
+      </c>
+      <c r="Y50" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="S50" s="2">
+      <c r="Z50" s="2">
         <v>115</v>
       </c>
-      <c r="T50" s="2">
+      <c r="AA50" s="23">
+        <v>1.6101243339253899</v>
+      </c>
+      <c r="AB50" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="U50" s="2">
+      <c r="AC50" s="2">
         <v>115</v>
       </c>
-      <c r="V50" s="2">
+      <c r="AD50" s="23">
+        <v>1.6101243339253899</v>
+      </c>
+      <c r="AE50" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="W50" s="2">
+      <c r="AF50" s="2">
         <v>120</v>
       </c>
-      <c r="X50" s="2">
+      <c r="AG50" s="24">
+        <v>1.68453427065026</v>
+      </c>
+      <c r="AH50" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="AI50" s="2">
         <v>117</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AJ50" s="24">
+        <v>1.62917398945518</v>
+      </c>
+      <c r="AK50" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AL50" s="2">
         <v>117</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AM50" s="23">
+        <v>1.62917398945518</v>
+      </c>
+      <c r="AN50" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AO50" s="2">
         <v>122</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AP50" s="23">
+        <v>1.7214411247803101</v>
+      </c>
+      <c r="AQ50" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AR50" s="2">
         <v>119</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AS50" s="23">
+        <v>1.6660808435852299</v>
+      </c>
+      <c r="AT50" s="2">
         <v>0.114</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="AU50" s="2">
         <v>120</v>
       </c>
+      <c r="AV50" s="23">
+        <v>1.68453427065026</v>
+      </c>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B51" s="27"/>
       <c r="C51" s="11" t="s">
         <v>8</v>
       </c>
@@ -5361,94 +7586,139 @@
       <c r="E51" s="3">
         <v>119</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="22">
+        <v>1.2536736272235101</v>
+      </c>
+      <c r="G51" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>119</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="24">
+        <v>1.2536736272235101</v>
+      </c>
+      <c r="J51" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>119</v>
       </c>
-      <c r="J51" s="2">
+      <c r="L51" s="22">
+        <v>1.2536736272235101</v>
+      </c>
+      <c r="M51" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="N51" s="3">
         <v>124</v>
       </c>
-      <c r="L51" s="2">
+      <c r="O51" s="24">
+        <v>1.34603658536585</v>
+      </c>
+      <c r="P51" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="M51" s="2">
+      <c r="Q51" s="2">
         <v>124</v>
       </c>
-      <c r="N51" s="3">
+      <c r="R51" s="24">
+        <v>1.34603658536585</v>
+      </c>
+      <c r="S51" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="O51" s="2">
+      <c r="T51" s="2">
         <v>124</v>
       </c>
-      <c r="P51" s="2">
+      <c r="U51" s="23">
+        <v>1.34603658536585</v>
+      </c>
+      <c r="V51" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="W51" s="2">
         <v>117</v>
       </c>
-      <c r="R51" s="2">
+      <c r="X51" s="23">
+        <v>1.1811085089773601</v>
+      </c>
+      <c r="Y51" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="S51" s="2">
+      <c r="Z51" s="2">
         <v>117</v>
       </c>
-      <c r="T51" s="2">
+      <c r="AA51" s="23">
+        <v>1.1811085089773601</v>
+      </c>
+      <c r="AB51" s="2">
         <v>0.128</v>
       </c>
-      <c r="U51" s="2">
+      <c r="AC51" s="2">
         <v>117</v>
       </c>
-      <c r="V51" s="2">
+      <c r="AD51" s="23">
+        <v>1.1811085089773601</v>
+      </c>
+      <c r="AE51" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W51" s="2">
+      <c r="AF51" s="2">
         <v>120</v>
       </c>
-      <c r="X51" s="2">
+      <c r="AG51" s="24">
+        <v>1.2088414634146301</v>
+      </c>
+      <c r="AH51" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="AI51" s="2">
         <v>120</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AJ51" s="24">
+        <v>1.2088414634146301</v>
+      </c>
+      <c r="AK51" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AL51" s="2">
         <v>120</v>
       </c>
-      <c r="AB51" s="2">
+      <c r="AM51" s="23">
+        <v>1.2088414634146301</v>
+      </c>
+      <c r="AN51" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AC51" s="2">
+      <c r="AO51" s="2">
         <v>122</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AP51" s="23">
+        <v>1.2400914634146301</v>
+      </c>
+      <c r="AQ51" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AR51" s="2">
         <v>122</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AS51" s="23">
+        <v>1.2400914634146301</v>
+      </c>
+      <c r="AT51" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="AU51" s="2">
         <v>122</v>
       </c>
-      <c r="AI51" s="2"/>
+      <c r="AV51" s="23">
+        <v>1.2400914634146301</v>
+      </c>
+      <c r="AX51" s="2"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B52" s="27"/>
       <c r="C52" s="11" t="s">
         <v>9</v>
       </c>
@@ -5458,94 +7728,139 @@
       <c r="E52" s="3">
         <v>119</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="22">
+        <v>1.06172839506172</v>
+      </c>
+      <c r="G52" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="24">
+        <v>1.06172839506172</v>
+      </c>
+      <c r="J52" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>119</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="22">
+        <v>1.06172839506172</v>
+      </c>
+      <c r="M52" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>124</v>
       </c>
-      <c r="L52" s="2">
+      <c r="O52" s="24">
+        <v>1.15873015873015</v>
+      </c>
+      <c r="P52" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M52" s="2">
+      <c r="Q52" s="2">
         <v>124</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="24">
+        <v>1.15873015873015</v>
+      </c>
+      <c r="S52" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O52" s="2">
+      <c r="T52" s="2">
         <v>124</v>
       </c>
-      <c r="P52" s="2">
+      <c r="U52" s="23">
+        <v>1.15873015873015</v>
+      </c>
+      <c r="V52" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="W52" s="2">
         <v>117</v>
       </c>
-      <c r="R52" s="2">
+      <c r="X52" s="23">
+        <v>0.97799174690508905</v>
+      </c>
+      <c r="Y52" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S52" s="2">
+      <c r="Z52" s="2">
         <v>117</v>
       </c>
-      <c r="T52" s="2">
+      <c r="AA52" s="23">
+        <v>0.97799174690508905</v>
+      </c>
+      <c r="AB52" s="2">
         <v>0.123</v>
       </c>
-      <c r="U52" s="2">
+      <c r="AC52" s="2">
         <v>117</v>
       </c>
-      <c r="V52" s="2">
+      <c r="AD52" s="23">
+        <v>0.97799174690508905</v>
+      </c>
+      <c r="AE52" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W52" s="2">
+      <c r="AF52" s="2">
         <v>120</v>
       </c>
-      <c r="X52" s="2">
+      <c r="AG52" s="24">
+        <v>0.99206349206349198</v>
+      </c>
+      <c r="AH52" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="Y52" s="2">
+      <c r="AI52" s="2">
         <v>120</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="AJ52" s="24">
+        <v>0.99206349206349198</v>
+      </c>
+      <c r="AK52" s="2">
         <v>0.13900000000000001</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AL52" s="2">
         <v>120</v>
       </c>
-      <c r="AB52" s="2">
+      <c r="AM52" s="23">
+        <v>0.99206349206349198</v>
+      </c>
+      <c r="AN52" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AC52" s="2">
+      <c r="AO52" s="2">
         <v>122</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AP52" s="23">
+        <v>1.01455026455026</v>
+      </c>
+      <c r="AQ52" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AR52" s="2">
         <v>122</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AS52" s="23">
+        <v>1.01455026455026</v>
+      </c>
+      <c r="AT52" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="AU52" s="2">
         <v>122</v>
       </c>
-      <c r="AI52" s="2"/>
+      <c r="AV52" s="23">
+        <v>1.01455026455026</v>
+      </c>
+      <c r="AX52" s="2"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B53" s="19"/>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B53" s="27"/>
       <c r="C53" s="11" t="s">
         <v>10</v>
       </c>
@@ -5555,115 +7870,144 @@
       <c r="E53" s="3">
         <v>119</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="22">
+        <v>0.97391304347826002</v>
+      </c>
+      <c r="G53" s="2">
         <v>0.111</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>119</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="24">
+        <v>0.97391304347826002</v>
+      </c>
+      <c r="J53" s="2">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>119</v>
       </c>
-      <c r="J53" s="2">
+      <c r="L53" s="22">
+        <v>0.97391304347826002</v>
+      </c>
+      <c r="M53" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K53" s="3">
+      <c r="N53" s="3">
         <v>124</v>
       </c>
-      <c r="L53" s="2">
+      <c r="O53" s="24">
+        <v>1.0682730923694701</v>
+      </c>
+      <c r="P53" s="2">
         <v>0.113</v>
       </c>
-      <c r="M53" s="2">
+      <c r="Q53" s="2">
         <v>124</v>
       </c>
-      <c r="N53" s="3">
+      <c r="R53" s="24">
+        <v>1.0682730923694701</v>
+      </c>
+      <c r="S53" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="O53" s="2">
+      <c r="T53" s="2">
         <v>124</v>
       </c>
-      <c r="P53" s="2">
+      <c r="U53" s="23">
+        <v>1.0682730923694701</v>
+      </c>
+      <c r="V53" s="2">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="W53" s="2">
         <v>117</v>
       </c>
-      <c r="R53" s="2">
+      <c r="X53" s="23">
+        <v>0.86919831223628696</v>
+      </c>
+      <c r="Y53" s="2">
         <v>0.109</v>
       </c>
-      <c r="S53" s="2">
+      <c r="Z53" s="2">
         <v>117</v>
       </c>
-      <c r="T53" s="2">
+      <c r="AA53" s="23">
+        <v>0.86919831223628696</v>
+      </c>
+      <c r="AB53" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="U53" s="2">
+      <c r="AC53" s="2">
         <v>117</v>
       </c>
-      <c r="V53" s="2">
+      <c r="AD53" s="23">
+        <v>0.86919831223628696</v>
+      </c>
+      <c r="AE53" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="W53" s="2">
+      <c r="AF53" s="2">
         <v>120</v>
       </c>
-      <c r="X53" s="2">
+      <c r="AG53" s="24">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="AH53" s="2">
         <v>0.105</v>
       </c>
-      <c r="Y53" s="2">
+      <c r="AI53" s="2">
         <v>120</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="AJ53" s="24">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="AK53" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AL53" s="2">
         <v>120</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AM53" s="23">
+        <v>0.86746987951807197</v>
+      </c>
+      <c r="AN53" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AO53" s="2">
         <v>122</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AP53" s="23">
+        <v>0.87951807228915602</v>
+      </c>
+      <c r="AQ53" s="2">
         <v>0.121</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AR53" s="2">
         <v>122</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AS53" s="23">
+        <v>0.87951807228915602</v>
+      </c>
+      <c r="AT53" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="AG53" s="2">
+      <c r="AU53" s="2">
         <v>122</v>
       </c>
-      <c r="AI53" s="2"/>
+      <c r="AV53" s="23">
+        <v>0.87951807228915602</v>
+      </c>
+      <c r="AX53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AE1:AL1"/>
+    <mergeCell ref="AN1:AU1"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B1:C1"/>
@@ -5676,6 +8020,22 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5688,8 +8048,8 @@
   <dimension ref="B2:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5702,62 +8062,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="22" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="31"/>
+      <c r="V2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="20" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="22" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="22"/>
+      <c r="AG2" s="31"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="3"/>
@@ -5768,8 +8128,8 @@
       <c r="AP2" s="7"/>
     </row>
     <row r="3" spans="2:42" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +8145,7 @@
       <c r="H3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -5803,7 +8163,7 @@
       <c r="N3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -5821,7 +8181,7 @@
       <c r="T3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="11" t="s">
@@ -5839,7 +8199,7 @@
       <c r="Z3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="AB3" s="11" t="s">
@@ -5857,7 +8217,7 @@
       <c r="AF3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9603,13 +11963,13 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9623,43 +11983,43 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="20" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -9709,8 +12069,8 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
